--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS_Data_Analytics\Projects\lookups-budget-HTMIV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994539B7-6D5D-4284-A107-D2E35246D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
     <sheet name="data_dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metro_budget!$A$1:$P$52</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -314,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,11 +461,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,6 +651,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -809,7 +824,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -821,6 +836,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -866,7 +883,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1176,77 +1205,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,23 +1293,52 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IF(C2 =0,0,C2/B2)</f>
+        <v>0.95682924923473267</v>
+      </c>
+      <c r="F2">
+        <f>RANK(E2,E:E)</f>
+        <v>35</v>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
       <c r="H2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="I2">
+        <f>H2-G2</f>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF(I2=0,0,H2/G2)</f>
+        <v>0.90502797291350701</v>
+      </c>
+      <c r="K2">
+        <f>RANK(J2,J:J)</f>
+        <v>38</v>
+      </c>
       <c r="L2">
         <v>376548600</v>
       </c>
       <c r="M2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="N2">
+        <f>M2-L2</f>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="O2" s="5">
+        <f>IF(M2 = 0,0,M2/L2)</f>
+        <v>0.94351563710500852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1282,23 +1348,52 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="D3">
+        <f>C3-B3</f>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f>IF(C3 =0,0,C3/B3)</f>
+        <v>0.97693001824817527</v>
+      </c>
+      <c r="F3">
+        <f>RANK(E3,E:E)</f>
+        <v>27</v>
+      </c>
       <c r="G3">
         <v>334800</v>
       </c>
       <c r="H3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="I3">
+        <f>H3-G3</f>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IF(I3=0,0,H3/G3)</f>
+        <v>0.93319507168458471</v>
+      </c>
+      <c r="K3">
+        <f>RANK(J3,J:J)</f>
+        <v>34</v>
+      </c>
       <c r="L3">
         <v>322700</v>
       </c>
       <c r="M3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="N3">
+        <f>M3-L3</f>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="O3" s="5">
+        <f>IF(M3 = 0,0,M3/L3)</f>
+        <v>0.99864592500774707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,23 +1403,52 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f>IF(C4 =0,0,C4/B4)</f>
+        <v>0.99506725867245571</v>
+      </c>
+      <c r="F4">
+        <f>RANK(E4,E:E)</f>
+        <v>7</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
       <c r="H4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4">
+        <f>H4-G4</f>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IF(I4=0,0,H4/G4)</f>
+        <v>0.982858256441144</v>
+      </c>
+      <c r="K4">
+        <f>RANK(J4,J:J)</f>
+        <v>12</v>
+      </c>
       <c r="L4">
         <v>3662400</v>
       </c>
       <c r="M4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="N4">
+        <f>M4-L4</f>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="O4" s="5">
+        <f>IF(M4 = 0,0,M4/L4)</f>
+        <v>0.97340078910004102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,23 +1458,52 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5">
+        <f>C5-B5</f>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f>IF(C5 =0,0,C5/B5)</f>
+        <v>0.90572603152254683</v>
+      </c>
+      <c r="F5">
+        <f>RANK(E5,E:E)</f>
+        <v>45</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
       <c r="H5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="I5">
+        <f>H5-G5</f>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IF(I5=0,0,H5/G5)</f>
+        <v>0.88106739455090799</v>
+      </c>
+      <c r="K5">
+        <f>RANK(J5,J:J)</f>
+        <v>43</v>
+      </c>
       <c r="L5">
         <v>7759600</v>
       </c>
       <c r="M5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="N5">
+        <f>M5-L5</f>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="O5" s="5">
+        <f>IF(M5 = 0,0,M5/L5)</f>
+        <v>0.9661996636424558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,23 +1513,52 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f>IF(C6 =0,0,C6/B6)</f>
+        <v>0.94285003664793554</v>
+      </c>
+      <c r="F6">
+        <f>RANK(E6,E:E)</f>
+        <v>38</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
       <c r="H6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="I6">
+        <f>H6-G6</f>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IF(I6=0,0,H6/G6)</f>
+        <v>0.99826987164527425</v>
+      </c>
+      <c r="K6">
+        <f>RANK(J6,J:J)</f>
+        <v>4</v>
+      </c>
       <c r="L6">
         <v>445200</v>
       </c>
       <c r="M6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="N6">
+        <f>M6-L6</f>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="O6" s="5">
+        <f>IF(M6 = 0,0,M6/L6)</f>
+        <v>0.99980747978436435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,23 +1568,52 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <f>C7-B7</f>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IF(C7 =0,0,C7/B7)</f>
+        <v>0.88497182637428651</v>
+      </c>
+      <c r="F7">
+        <f>RANK(E7,E:E)</f>
+        <v>47</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
       <c r="H7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="I7">
+        <f>H7-G7</f>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="J7" s="5">
+        <f>IF(I7=0,0,H7/G7)</f>
+        <v>0.89990368633696072</v>
+      </c>
+      <c r="K7">
+        <f>RANK(J7,J:J)</f>
+        <v>40</v>
+      </c>
       <c r="L7">
         <v>3345200</v>
       </c>
       <c r="M7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="N7">
+        <f>M7-L7</f>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="O7" s="5">
+        <f>IF(M7 = 0,0,M7/L7)</f>
+        <v>0.8807963888556738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,23 +1623,52 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <f>C8-B8</f>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f>IF(C8 =0,0,C8/B8)</f>
+        <v>0.84764081566908711</v>
+      </c>
+      <c r="F8">
+        <f>RANK(E8,E:E)</f>
+        <v>48</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
       <c r="H8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="I8">
+        <f>H8-G8</f>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="J8" s="5">
+        <f>IF(I8=0,0,H8/G8)</f>
+        <v>0.86999810775129816</v>
+      </c>
+      <c r="K8">
+        <f>RANK(J8,J:J)</f>
+        <v>44</v>
+      </c>
       <c r="L8">
         <v>1579300</v>
       </c>
       <c r="M8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="N8">
+        <f>M8-L8</f>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="O8" s="5">
+        <f>IF(M8 = 0,0,M8/L8)</f>
+        <v>0.84704319635280823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,23 +1678,52 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9">
+        <f>C9-B9</f>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f>IF(C9 =0,0,C9/B9)</f>
+        <v>0.95758286948895111</v>
+      </c>
+      <c r="F9">
+        <f>RANK(E9,E:E)</f>
+        <v>33</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
       <c r="H9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="I9">
+        <f>H9-G9</f>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="J9" s="5">
+        <f>IF(I9=0,0,H9/G9)</f>
+        <v>0.89663432457082992</v>
+      </c>
+      <c r="K9">
+        <f>RANK(J9,J:J)</f>
+        <v>41</v>
+      </c>
       <c r="L9">
         <v>10790500</v>
       </c>
       <c r="M9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9">
+        <f>M9-L9</f>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="O9" s="5">
+        <f>IF(M9 = 0,0,M9/L9)</f>
+        <v>0.92614795699921137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,23 +1733,52 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10">
+        <f>C10-B10</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f>IF(C10 =0,0,C10/B10)</f>
+        <v>0.91831800135348518</v>
+      </c>
+      <c r="F10">
+        <f>RANK(E10,E:E)</f>
+        <v>43</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
       <c r="H10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="I10">
+        <f>H10-G10</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="J10" s="5">
+        <f>IF(I10=0,0,H10/G10)</f>
+        <v>0.94488659127625207</v>
+      </c>
+      <c r="K10">
+        <f>RANK(J10,J:J)</f>
+        <v>31</v>
+      </c>
       <c r="L10">
         <v>487500</v>
       </c>
       <c r="M10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="N10">
+        <f>M10-L10</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="O10" s="5">
+        <f>IF(M10 = 0,0,M10/L10)</f>
+        <v>0.98116701538461537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,23 +1788,52 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11">
+        <f>C11-B11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f>IF(C11 =0,0,C11/B11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>RANK(E11,E:E)</f>
+        <v>49</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11">
+        <f>H11-G11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f>IF(I11=0,0,H11/G11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>RANK(J11,J:J)</f>
+        <v>48</v>
+      </c>
       <c r="L11">
         <v>375000</v>
       </c>
       <c r="M11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="N11">
+        <f>L11-M11</f>
+        <v>311228.08999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <f>IF(M11 = 0,0,M11/L11)</f>
+        <v>0.17005842666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,23 +1843,52 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12">
+        <f>C12-B12</f>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f>IF(C12 =0,0,C12/B12)</f>
+        <v>0.94993934219439835</v>
+      </c>
+      <c r="F12">
+        <f>RANK(E12,E:E)</f>
+        <v>36</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
       <c r="H12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="I12">
+        <f>H12-G12</f>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="J12" s="5">
+        <f>IF(I12=0,0,H12/G12)</f>
+        <v>0.89472291719853625</v>
+      </c>
+      <c r="K12">
+        <f>RANK(J12,J:J)</f>
+        <v>42</v>
+      </c>
       <c r="L12">
         <v>4677800</v>
       </c>
       <c r="M12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="N12">
+        <f>M12-L12</f>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="O12" s="5">
+        <f>IF(M12 = 0,0,M12/L12)</f>
+        <v>0.9345660652443456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,23 +1898,52 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13">
+        <f>C13-B13</f>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f>IF(C13 =0,0,C13/B13)</f>
+        <v>0.98708716611375225</v>
+      </c>
+      <c r="F13">
+        <f>RANK(E13,E:E)</f>
+        <v>16</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
       <c r="H13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="I13">
+        <f>H13-G13</f>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="J13" s="5">
+        <f>IF(I13=0,0,H13/G13)</f>
+        <v>0.94944774651734343</v>
+      </c>
+      <c r="K13">
+        <f>RANK(J13,J:J)</f>
+        <v>30</v>
+      </c>
       <c r="L13">
         <v>6207300</v>
       </c>
       <c r="M13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="N13">
+        <f>M13-L13</f>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="O13" s="5">
+        <f>IF(M13 = 0,0,M13/L13)</f>
+        <v>0.97578281539477707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,23 +1953,52 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14">
+        <f>C14-B14</f>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f>IF(C14 =0,0,C14/B14)</f>
+        <v>0.98636205078124994</v>
+      </c>
+      <c r="F14">
+        <f>RANK(E14,E:E)</f>
+        <v>19</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
       <c r="H14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="I14">
+        <f>H14-G14</f>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="J14" s="5">
+        <f>IF(I14=0,0,H14/G14)</f>
+        <v>0.98850703110273319</v>
+      </c>
+      <c r="K14">
+        <f>RANK(J14,J:J)</f>
+        <v>8</v>
+      </c>
       <c r="L14">
         <v>526200</v>
       </c>
       <c r="M14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="N14">
+        <f>M14-L14</f>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="O14" s="5">
+        <f>IF(M14 = 0,0,M14/L14)</f>
+        <v>0.95969190421892814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,23 +2008,52 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15">
+        <f>C15-B15</f>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f>IF(C15 =0,0,C15/B15)</f>
+        <v>1.0031837408866826</v>
+      </c>
+      <c r="F15">
+        <f>RANK(E15,E:E)</f>
+        <v>1</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
       <c r="H15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="I15">
+        <f>H15-G15</f>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="J15" s="5">
+        <f>IF(I15=0,0,H15/G15)</f>
+        <v>0.95546772698592797</v>
+      </c>
+      <c r="K15">
+        <f>RANK(J15,J:J)</f>
+        <v>24</v>
+      </c>
       <c r="L15">
         <v>188953500</v>
       </c>
       <c r="M15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15">
+        <f>L16-M16</f>
+        <v>107</v>
+      </c>
+      <c r="O15" s="5">
+        <f>IF(M15 = 0,0,M15/L15)</f>
+        <v>0.97617091427255387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,23 +2063,52 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16">
+        <f>C16-B16</f>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f>IF(C16 =0,0,C16/B16)</f>
+        <v>0.98814981138363955</v>
+      </c>
+      <c r="F16">
+        <f>RANK(E16,E:E)</f>
+        <v>12</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
       <c r="H16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="I16">
+        <f>H16-G16</f>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="J16" s="5">
+        <f>IF(I16=0,0,H16/G16)</f>
+        <v>0.999723098265896</v>
+      </c>
+      <c r="K16">
+        <f>RANK(J16,J:J)</f>
+        <v>2</v>
+      </c>
       <c r="L16">
         <v>7397200</v>
       </c>
       <c r="M16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16">
+        <f>M16-L16</f>
+        <v>-107</v>
+      </c>
+      <c r="O16" s="5">
+        <f>IF(M16 = 0,0,M16/L16)</f>
+        <v>0.99998553506732279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,23 +2118,52 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17">
+        <f>C17-B17</f>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f>IF(C17 =0,0,C17/B17)</f>
+        <v>0.97164890517334201</v>
+      </c>
+      <c r="F17">
+        <f>RANK(E17,E:E)</f>
+        <v>28</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
       <c r="H17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="I17">
+        <f>H17-G17</f>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="J17" s="5">
+        <f>IF(I17=0,0,H17/G17)</f>
+        <v>0.95659833373612801</v>
+      </c>
+      <c r="K17">
+        <f>RANK(J17,J:J)</f>
+        <v>23</v>
+      </c>
       <c r="L17">
         <v>15311800</v>
       </c>
       <c r="M17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17">
+        <f>M17-L17</f>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="O17" s="5">
+        <f>IF(M17 = 0,0,M17/L17)</f>
+        <v>0.93692818871719841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,23 +2173,52 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18">
+        <f>C18-B18</f>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f>IF(C18 =0,0,C18/B18)</f>
+        <v>0.94596299779360871</v>
+      </c>
+      <c r="F18">
+        <f>RANK(E18,E:E)</f>
+        <v>37</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
       <c r="H18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="I18">
+        <f>H18-G18</f>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="J18" s="5">
+        <f>IF(I18=0,0,H18/G18)</f>
+        <v>0.9338503809856693</v>
+      </c>
+      <c r="K18">
+        <f>RANK(J18,J:J)</f>
+        <v>33</v>
+      </c>
       <c r="L18">
         <v>2910600</v>
       </c>
       <c r="M18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18">
+        <f>M18-L18</f>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="O18" s="5">
+        <f>IF(M18 = 0,0,M18/L18)</f>
+        <v>0.87117332852332852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,23 +2228,52 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19">
+        <f>C19-B19</f>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f>IF(C19 =0,0,C19/B19)</f>
+        <v>0.95741495705701851</v>
+      </c>
+      <c r="F19">
+        <f>RANK(E19,E:E)</f>
+        <v>34</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
       <c r="H19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="I19">
+        <f>H19-G19</f>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="J19" s="5">
+        <f>IF(I19=0,0,H19/G19)</f>
+        <v>0.92571085418961541</v>
+      </c>
+      <c r="K19">
+        <f>RANK(J19,J:J)</f>
+        <v>36</v>
+      </c>
       <c r="L19">
         <v>9343000</v>
       </c>
       <c r="M19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="N19">
+        <f>M19-L19</f>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="O19" s="5">
+        <f>IF(M19 = 0,0,M19/L19)</f>
+        <v>0.93831273787862568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,23 +2283,52 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20">
+        <f>C20-B20</f>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f>IF(C20 =0,0,C20/B20)</f>
+        <v>0.99998762046179668</v>
+      </c>
+      <c r="F20">
+        <f>RANK(E20,E:E)</f>
+        <v>3</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
       <c r="H20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="I20">
+        <f>H20-G20</f>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="J20" s="5">
+        <f>IF(I20=0,0,H20/G20)</f>
+        <v>0.99992585760723984</v>
+      </c>
+      <c r="K20">
+        <f>RANK(J20,J:J)</f>
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>130621400</v>
       </c>
       <c r="M20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20">
+        <f>M20-L20</f>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="O20" s="5">
+        <f>IF(M20 = 0,0,M20/L20)</f>
+        <v>0.99999910841561179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,23 +2338,52 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f>IF(C21 =0,0,C21/B21)</f>
+        <v>0.92094753638197691</v>
+      </c>
+      <c r="F21">
+        <f>RANK(E21,E:E)</f>
+        <v>40</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
       <c r="H21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="I21">
+        <f>H21-G21</f>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="J21" s="5">
+        <f>IF(I21=0,0,H21/G21)</f>
+        <v>0.92483257937577046</v>
+      </c>
+      <c r="K21">
+        <f>RANK(J21,J:J)</f>
+        <v>37</v>
+      </c>
       <c r="L21">
         <v>24323000</v>
       </c>
       <c r="M21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21">
+        <f>M21-L21</f>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="O21" s="5">
+        <f>IF(M21 = 0,0,M21/L21)</f>
+        <v>0.96345323726513588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,23 +2393,52 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22">
+        <f>C22-B22</f>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f>IF(C22 =0,0,C22/B22)</f>
+        <v>0.98671449766556285</v>
+      </c>
+      <c r="F22">
+        <f>RANK(E22,E:E)</f>
+        <v>17</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
       <c r="H22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="I22">
+        <f>H22-G22</f>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="J22" s="5">
+        <f>IF(I22=0,0,H22/G22)</f>
+        <v>0.98424782942565125</v>
+      </c>
+      <c r="K22">
+        <f>RANK(J22,J:J)</f>
+        <v>10</v>
+      </c>
       <c r="L22">
         <v>11935200</v>
       </c>
       <c r="M22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22">
+        <f>M22-L22</f>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="O22" s="5">
+        <f>IF(M22 = 0,0,M22/L22)</f>
+        <v>0.99993756032575909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,23 +2448,52 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23">
+        <f>C23-B23</f>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f>IF(C23 =0,0,C23/B23)</f>
+        <v>0.96040988989919329</v>
+      </c>
+      <c r="F23">
+        <f>RANK(E23,E:E)</f>
+        <v>31</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
       <c r="H23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="I23">
+        <f>H23-G23</f>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="J23" s="5">
+        <f>IF(I23=0,0,H23/G23)</f>
+        <v>0.95760526102328081</v>
+      </c>
+      <c r="K23">
+        <f>RANK(J23,J:J)</f>
+        <v>22</v>
+      </c>
       <c r="L23">
         <v>23220300</v>
       </c>
       <c r="M23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="N23">
+        <f>M23-L23</f>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="O23" s="5">
+        <f>IF(M23 = 0,0,M23/L23)</f>
+        <v>0.97410702876362498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,23 +2503,52 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24">
+        <f>C24-B24</f>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f>IF(C24 =0,0,C24/B24)</f>
+        <v>0.98666505669428695</v>
+      </c>
+      <c r="F24">
+        <f>RANK(E24,E:E)</f>
+        <v>18</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
       <c r="H24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="I24">
+        <f>H24-G24</f>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="J24" s="5">
+        <f>IF(I24=0,0,H24/G24)</f>
+        <v>0.95912143434888109</v>
+      </c>
+      <c r="K24">
+        <f>RANK(J24,J:J)</f>
+        <v>20</v>
+      </c>
       <c r="L24">
         <v>1112600</v>
       </c>
       <c r="M24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24">
+        <f>M24-L24</f>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="O24" s="5">
+        <f>IF(M24 = 0,0,M24/L24)</f>
+        <v>0.99993449577566074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,23 +2558,52 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25">
+        <f>C25-B25</f>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f>IF(C25 =0,0,C25/B25)</f>
+        <v>0.98977386903532338</v>
+      </c>
+      <c r="F25">
+        <f>RANK(E25,E:E)</f>
+        <v>11</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
       <c r="H25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="I25">
+        <f>H25-G25</f>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="J25" s="5">
+        <f>IF(I25=0,0,H25/G25)</f>
+        <v>0.98415322644497027</v>
+      </c>
+      <c r="K25">
+        <f>RANK(J25,J:J)</f>
+        <v>11</v>
+      </c>
       <c r="L25">
         <v>496500</v>
       </c>
       <c r="M25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25">
+        <f>M25-L25</f>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="O25" s="5">
+        <f>IF(M25 = 0,0,M25/L25)</f>
+        <v>0.9965258811681772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,23 +2613,52 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26">
+        <f>C26-B26</f>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f>IF(C26 =0,0,C26/B26)</f>
+        <v>0.91469390833936537</v>
+      </c>
+      <c r="F26">
+        <f>RANK(E26,E:E)</f>
+        <v>44</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
       <c r="H26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="I26">
+        <f>H26-G26</f>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="J26" s="5">
+        <f>IF(I26=0,0,H26/G26)</f>
+        <v>0.94122395906067213</v>
+      </c>
+      <c r="K26">
+        <f>RANK(J26,J:J)</f>
+        <v>32</v>
+      </c>
       <c r="L26">
         <v>5430700</v>
       </c>
       <c r="M26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26">
+        <f>M26-L26</f>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="O26" s="5">
+        <f>IF(M26 = 0,0,M26/L26)</f>
+        <v>0.94227911871397796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,23 +2668,52 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27">
+        <f>C27-B27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f>IF(C27 =0,0,C27/B27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>RANK(E27,E:E)</f>
+        <v>49</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27">
+        <f>H27-G27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>IF(I27=0,0,H27/G27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>RANK(J27,J:J)</f>
+        <v>48</v>
+      </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27">
+        <f>L27-M27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f>IF(M27 = 0,0,M27/L27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,23 +2723,52 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <f>C28-B28</f>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f>IF(C28 =0,0,C28/B28)</f>
+        <v>0.90421723913515073</v>
+      </c>
+      <c r="F28">
+        <f>RANK(E28,E:E)</f>
+        <v>46</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
       <c r="H28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="I28">
+        <f>H28-G28</f>
+        <v>-264364.77</v>
+      </c>
+      <c r="J28" s="5">
+        <f>IF(I28=0,0,H28/G28)</f>
+        <v>0.82896760690949078</v>
+      </c>
+      <c r="K28">
+        <f>RANK(J28,J:J)</f>
+        <v>46</v>
+      </c>
       <c r="L28">
         <v>1525900</v>
       </c>
       <c r="M28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28">
+        <f>M28-L28</f>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="O28" s="5">
+        <f>IF(M28 = 0,0,M28/L28)</f>
+        <v>0.91309067435611779</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,23 +2778,52 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29">
+        <f>C29-B29</f>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f>IF(C29 =0,0,C29/B29)</f>
+        <v>0.98519974627215234</v>
+      </c>
+      <c r="F29">
+        <f>RANK(E29,E:E)</f>
+        <v>21</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
       <c r="H29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="I29">
+        <f>H29-G29</f>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="J29" s="5">
+        <f>IF(I29=0,0,H29/G29)</f>
+        <v>0.95890067997840989</v>
+      </c>
+      <c r="K29">
+        <f>RANK(J29,J:J)</f>
+        <v>21</v>
+      </c>
       <c r="L29">
         <v>2889900</v>
       </c>
       <c r="M29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="N29">
+        <f>M29-L29</f>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="O29" s="5">
+        <f>IF(M29 = 0,0,M29/L29)</f>
+        <v>0.9999877746634831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,23 +2833,52 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30">
+        <f>C30-B30</f>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f>IF(C30 =0,0,C30/B30)</f>
+        <v>0.99161686256408565</v>
+      </c>
+      <c r="F30">
+        <f>RANK(E30,E:E)</f>
+        <v>9</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
       <c r="H30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="I30">
+        <f>H30-G30</f>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="J30" s="5">
+        <f>IF(I30=0,0,H30/G30)</f>
+        <v>0.99604380373588841</v>
+      </c>
+      <c r="K30">
+        <f>RANK(J30,J:J)</f>
+        <v>6</v>
+      </c>
       <c r="L30">
         <v>12861300</v>
       </c>
       <c r="M30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30">
+        <f>M30-L30</f>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="O30" s="5">
+        <f>IF(M30 = 0,0,M30/L30)</f>
+        <v>0.99725607908998304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,23 +2888,52 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31">
+        <f>C31-B31</f>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f>IF(C31 =0,0,C31/B31)</f>
+        <v>0.98596946647032169</v>
+      </c>
+      <c r="F31">
+        <f>RANK(E31,E:E)</f>
+        <v>20</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
       <c r="H31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="I31">
+        <f>H31-G31</f>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="J31" s="5">
+        <f>IF(I31=0,0,H31/G31)</f>
+        <v>0.9667508638183514</v>
+      </c>
+      <c r="K31">
+        <f>RANK(J31,J:J)</f>
+        <v>16</v>
+      </c>
       <c r="L31">
         <v>1870700</v>
       </c>
       <c r="M31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31">
+        <f>M31-L31</f>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="O31" s="5">
+        <f>IF(M31 = 0,0,M31/L31)</f>
+        <v>0.96295041428342332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,153 +2943,327 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32">
+        <f>C32-B32</f>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f>IF(C32 =0,0,C32/B32)</f>
+        <v>0.98770505717238233</v>
+      </c>
+      <c r="F32">
+        <f>RANK(E32,E:E)</f>
+        <v>13</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
       <c r="H32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="I32">
+        <f>H32-G32</f>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="J32" s="5">
+        <f>IF(I32=0,0,H32/G32)</f>
+        <v>0.982162128964571</v>
+      </c>
+      <c r="K32">
+        <f>RANK(J32,J:J)</f>
+        <v>13</v>
+      </c>
       <c r="L32">
         <v>6157400</v>
       </c>
       <c r="M32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32">
+        <f>M32-L32</f>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="O32" s="5">
+        <f>IF(M32 = 0,0,M32/L32)</f>
+        <v>0.97241888134602261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>4189300</v>
+      </c>
+      <c r="C33">
+        <v>4109958.22</v>
+      </c>
+      <c r="D33">
+        <f>C33-B33</f>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E33" s="5">
+        <f>IF(C33 =0,0,C33/B33)</f>
+        <v>0.98106085026138024</v>
+      </c>
+      <c r="F33">
+        <f>RANK(E33,E:E)</f>
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>4350600</v>
+      </c>
+      <c r="H33">
+        <v>4137588.7699999898</v>
+      </c>
+      <c r="I33">
+        <f>H33-G33</f>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="J33" s="5">
+        <f>IF(I33=0,0,H33/G33)</f>
+        <v>0.95103865443846591</v>
+      </c>
+      <c r="K33">
+        <f>RANK(J33,J:J)</f>
+        <v>27</v>
+      </c>
+      <c r="L33">
+        <v>4345600</v>
+      </c>
+      <c r="M33">
+        <v>4229801.51</v>
+      </c>
+      <c r="N33">
+        <f>M33-L33</f>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="O33" s="5">
+        <f>IF(M33 = 0,0,M33/L33)</f>
+        <v>0.97335270388438877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>C34-B34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f>IF(C34 =0,0,C34/B34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>RANK(E34,E:E)</f>
+        <v>49</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>H34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <f>IF(I34=0,0,H34/G34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>RANK(J34,J:J)</f>
+        <v>48</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>L34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <f>IF(M34 = 0,0,M34/L34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>798200</v>
+      </c>
+      <c r="C35">
+        <v>735423.27999999898</v>
+      </c>
+      <c r="D35">
+        <f>C35-B35</f>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E35" s="5">
+        <f>IF(C35 =0,0,C35/B35)</f>
+        <v>0.92135214232021923</v>
+      </c>
+      <c r="F35">
+        <f>RANK(E35,E:E)</f>
+        <v>39</v>
+      </c>
+      <c r="G35">
+        <v>898700</v>
+      </c>
+      <c r="H35">
+        <v>740966.94999999902</v>
+      </c>
+      <c r="I35">
+        <f>H35-G35</f>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="J35" s="5">
+        <f>IF(I35=0,0,H35/G35)</f>
+        <v>0.82448753755424398</v>
+      </c>
+      <c r="K35">
+        <f>RANK(J35,J:J)</f>
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="L35">
+        <v>878300</v>
+      </c>
+      <c r="M35">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="N35">
+        <f>M35-L35</f>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="O35" s="5">
+        <f>IF(M35 = 0,0,M35/L35)</f>
+        <v>0.8849086758510748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>2087800</v>
+      </c>
+      <c r="C36">
+        <v>2005447.73999999</v>
+      </c>
+      <c r="D36">
+        <f>C36-B36</f>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E36" s="5">
+        <f>IF(C36 =0,0,C36/B36)</f>
+        <v>0.96055548424178083</v>
+      </c>
+      <c r="F36">
+        <f>RANK(E36,E:E)</f>
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>2229200</v>
+      </c>
+      <c r="H36">
+        <v>2118943.21</v>
+      </c>
+      <c r="I36">
+        <f>H36-G36</f>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="J36" s="5">
+        <f>IF(I36=0,0,H36/G36)</f>
+        <v>0.95053974968598598</v>
+      </c>
+      <c r="K36">
+        <f>RANK(J36,J:J)</f>
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>2296900</v>
+      </c>
+      <c r="M36">
+        <v>2108718.34</v>
+      </c>
+      <c r="N36">
+        <f>M36-L36</f>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="O36" s="5">
+        <f>IF(M36 = 0,0,M36/L36)</f>
+        <v>0.91807146153511243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
         <v>927703099.99999905</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="G33">
+      <c r="D37">
+        <f>C37-B37</f>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E37" s="5">
+        <f>IF(C37 =0,0,C37/B37)</f>
+        <v>0.99200300692107313</v>
+      </c>
+      <c r="F37">
+        <f>RANK(E37,E:E)</f>
+        <v>8</v>
+      </c>
+      <c r="G37">
         <v>979671000</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="L33">
+      <c r="I37">
+        <f>H37-G37</f>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="J37" s="5">
+        <f>IF(I37=0,0,H37/G37)</f>
+        <v>0.99734350968845664</v>
+      </c>
+      <c r="K37">
+        <f>RANK(J37,J:J)</f>
+        <v>5</v>
+      </c>
+      <c r="L37">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33">
+      <c r="M37">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
-        <v>4189300</v>
-      </c>
-      <c r="C34">
-        <v>4109958.22</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="G34">
-        <v>4350600</v>
-      </c>
-      <c r="H34">
-        <v>4137588.7699999898</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="L34">
-        <v>4345600</v>
-      </c>
-      <c r="M34">
-        <v>4229801.51</v>
-      </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <v>798200</v>
-      </c>
-      <c r="C36">
-        <v>735423.27999999898</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="G36">
-        <v>898700</v>
-      </c>
-      <c r="H36">
-        <v>740966.94999999902</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="L36">
-        <v>878300</v>
-      </c>
-      <c r="M36">
-        <v>777215.28999999899</v>
-      </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37">
-        <v>2087800</v>
-      </c>
-      <c r="C37">
-        <v>2005447.73999999</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="G37">
-        <v>2229200</v>
-      </c>
-      <c r="H37">
-        <v>2118943.21</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="L37">
-        <v>2296900</v>
-      </c>
-      <c r="M37">
-        <v>2108718.34</v>
-      </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37">
+        <f>M37-L37</f>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="O37" s="5">
+        <f>IF(M37 = 0,0,M37/L37)</f>
+        <v>0.99448589326769155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,23 +3273,52 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38">
+        <f>C38-B38</f>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f>IF(C38 =0,0,C38/B38)</f>
+        <v>0.98055631942008648</v>
+      </c>
+      <c r="F38">
+        <f>RANK(E38,E:E)</f>
+        <v>24</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
       <c r="H38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="I38">
+        <f>H38-G38</f>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="J38" s="5">
+        <f>IF(I38=0,0,H38/G38)</f>
+        <v>0.95036826437941468</v>
+      </c>
+      <c r="K38">
+        <f>RANK(J38,J:J)</f>
+        <v>29</v>
+      </c>
       <c r="L38">
         <v>777800</v>
       </c>
       <c r="M38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38">
+        <f>M38-L38</f>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="O38" s="5">
+        <f>IF(M38 = 0,0,M38/L38)</f>
+        <v>0.99982419645152998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,23 +3328,52 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39">
+        <f>C39-B39</f>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f>IF(C39 =0,0,C39/B39)</f>
+        <v>0.91991047629822376</v>
+      </c>
+      <c r="F39">
+        <f>RANK(E39,E:E)</f>
+        <v>41</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
       <c r="H39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="I39">
+        <f>H39-G39</f>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="J39" s="5">
+        <f>IF(I39=0,0,H39/G39)</f>
+        <v>0.86081758343633341</v>
+      </c>
+      <c r="K39">
+        <f>RANK(J39,J:J)</f>
+        <v>45</v>
+      </c>
       <c r="L39">
         <v>1759500</v>
       </c>
       <c r="M39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39">
+        <f>M39-L39</f>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="O39" s="5">
+        <f>IF(M39 = 0,0,M39/L39)</f>
+        <v>0.95508034668939479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,23 +3383,52 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40">
+        <f>C40-B40</f>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f>IF(C40 =0,0,C40/B40)</f>
+        <v>0.97872022646090739</v>
+      </c>
+      <c r="F40">
+        <f>RANK(E40,E:E)</f>
+        <v>26</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
       <c r="H40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="I40">
+        <f>H40-G40</f>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="J40" s="5">
+        <f>IF(I40=0,0,H40/G40)</f>
+        <v>0.95321745306506211</v>
+      </c>
+      <c r="K40">
+        <f>RANK(J40,J:J)</f>
+        <v>26</v>
+      </c>
       <c r="L40">
         <v>40216700</v>
       </c>
       <c r="M40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="N40">
+        <f>M40-L40</f>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="O40" s="5">
+        <f>IF(M40 = 0,0,M40/L40)</f>
+        <v>0.98482132323139138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,23 +3438,52 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41">
+        <f>C41-B41</f>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f>IF(C41 =0,0,C41/B41)</f>
+        <v>0.95988944985086755</v>
+      </c>
+      <c r="F41">
+        <f>RANK(E41,E:E)</f>
+        <v>32</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
       <c r="H41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="I41">
+        <f>H41-G41</f>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="J41" s="5">
+        <f>IF(I41=0,0,H41/G41)</f>
+        <v>0.9737781059043108</v>
+      </c>
+      <c r="K41">
+        <f>RANK(J41,J:J)</f>
+        <v>14</v>
+      </c>
       <c r="L41">
         <v>4799900</v>
       </c>
       <c r="M41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="N41">
+        <f>M41-L41</f>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="O41" s="5">
+        <f>IF(M41 = 0,0,M41/L41)</f>
+        <v>0.98290019583741339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,23 +3493,52 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42">
+        <f>C42-B42</f>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f>IF(C42 =0,0,C42/B42)</f>
+        <v>0.99977929056864157</v>
+      </c>
+      <c r="F42">
+        <f>RANK(E42,E:E)</f>
+        <v>5</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
       <c r="H42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="I42">
+        <f>H42-G42</f>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="J42" s="5">
+        <f>IF(I42=0,0,H42/G42)</f>
+        <v>0.988071796758203</v>
+      </c>
+      <c r="K42">
+        <f>RANK(J42,J:J)</f>
+        <v>9</v>
+      </c>
       <c r="L42">
         <v>199954600</v>
       </c>
       <c r="M42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42">
+        <f>M42-L42</f>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="O42" s="5">
+        <f>IF(M42 = 0,0,M42/L42)</f>
+        <v>0.9999998187088418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,23 +3548,52 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43">
+        <f>C43-B43</f>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f>IF(C43 =0,0,C43/B43)</f>
+        <v>0.97950264645868679</v>
+      </c>
+      <c r="F43">
+        <f>RANK(E43,E:E)</f>
+        <v>25</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
       <c r="H43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="I43">
+        <f>H43-G43</f>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="J43" s="5">
+        <f>IF(I43=0,0,H43/G43)</f>
+        <v>0.95452200962526856</v>
+      </c>
+      <c r="K43">
+        <f>RANK(J43,J:J)</f>
+        <v>25</v>
+      </c>
       <c r="L43">
         <v>8497500</v>
       </c>
       <c r="M43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43">
+        <f>M43-L43</f>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="O43" s="5">
+        <f>IF(M43 = 0,0,M43/L43)</f>
+        <v>0.95922124977934564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,23 +3603,52 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44">
+        <f>C44-B44</f>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f>IF(C44 =0,0,C44/B44)</f>
+        <v>0.9902239249813849</v>
+      </c>
+      <c r="F44">
+        <f>RANK(E44,E:E)</f>
+        <v>10</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
       <c r="H44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="I44">
+        <f>H44-G44</f>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="J44" s="5">
+        <f>IF(I44=0,0,H44/G44)</f>
+        <v>0.99204307505951861</v>
+      </c>
+      <c r="K44">
+        <f>RANK(J44,J:J)</f>
+        <v>7</v>
+      </c>
       <c r="L44">
         <v>31282200</v>
       </c>
       <c r="M44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44">
+        <f>M44-L44</f>
+        <v>-58.75</v>
+      </c>
+      <c r="O44" s="5">
+        <f>IF(M44 = 0,0,M44/L44)</f>
+        <v>0.99999812193515802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,23 +3658,52 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45">
+        <f>C45-B45</f>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f>IF(C45 =0,0,C45/B45)</f>
+        <v>0.98712485805112149</v>
+      </c>
+      <c r="F45">
+        <f>RANK(E45,E:E)</f>
+        <v>15</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
       <c r="H45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="I45">
+        <f>H45-G45</f>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="J45" s="5">
+        <f>IF(I45=0,0,H45/G45)</f>
+        <v>0.96131077788851105</v>
+      </c>
+      <c r="K45">
+        <f>RANK(J45,J:J)</f>
+        <v>18</v>
+      </c>
       <c r="L45">
         <v>56027100</v>
       </c>
       <c r="M45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="N45">
+        <f>M45-L45</f>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="O45" s="5">
+        <f>IF(M45 = 0,0,M45/L45)</f>
+        <v>0.98856713376205263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,23 +3713,52 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46">
+        <f>C46-B46</f>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f>IF(C46 =0,0,C46/B46)</f>
+        <v>0.99699895793130067</v>
+      </c>
+      <c r="F46">
+        <f>RANK(E46,E:E)</f>
+        <v>6</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
       <c r="H46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="I46">
+        <f>H46-G46</f>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="J46" s="5">
+        <f>IF(I46=0,0,H46/G46)</f>
+        <v>0.96768011278195121</v>
+      </c>
+      <c r="K46">
+        <f>RANK(J46,J:J)</f>
+        <v>15</v>
+      </c>
       <c r="L46">
         <v>267100</v>
       </c>
       <c r="M46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="N46">
+        <f>M46-L46</f>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="O46" s="5">
+        <f>IF(M46 = 0,0,M46/L46)</f>
+        <v>0.95377446649194686</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,23 +3768,52 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47">
+        <f>C47-B47</f>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f>IF(C47 =0,0,C47/B47)</f>
+        <v>0.99982564060309098</v>
+      </c>
+      <c r="F47">
+        <f>RANK(E47,E:E)</f>
+        <v>4</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
       <c r="H47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="I47">
+        <f>H47-G47</f>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="J47" s="5">
+        <f>IF(I47=0,0,H47/G47)</f>
+        <v>0.99966708399689652</v>
+      </c>
+      <c r="K47">
+        <f>RANK(J47,J:J)</f>
+        <v>3</v>
+      </c>
       <c r="L47">
         <v>75072800</v>
       </c>
       <c r="M47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47">
+        <f>M47-L47</f>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="O47" s="5">
+        <f>IF(M47 = 0,0,M47/L47)</f>
+        <v>0.99970733980882431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,23 +3823,52 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48">
+        <f>C48-B48</f>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f>IF(C48 =0,0,C48/B48)</f>
+        <v>0.96886680767689215</v>
+      </c>
+      <c r="F48">
+        <f>RANK(E48,E:E)</f>
+        <v>29</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
       <c r="H48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="I48">
+        <f>H48-G48</f>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="J48" s="5">
+        <f>IF(I48=0,0,H48/G48)</f>
+        <v>0.95944010977587424</v>
+      </c>
+      <c r="K48">
+        <f>RANK(J48,J:J)</f>
+        <v>19</v>
+      </c>
       <c r="L48">
         <v>7289800</v>
       </c>
       <c r="M48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="N48">
+        <f>M48-L48</f>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="O48" s="5">
+        <f>IF(M48 = 0,0,M48/L48)</f>
+        <v>0.94410686712941227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,23 +3878,52 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49">
+        <f>C49-B49</f>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f>IF(C49 =0,0,C49/B49)</f>
+        <v>0.98155563991323203</v>
+      </c>
+      <c r="F49">
+        <f>RANK(E49,E:E)</f>
+        <v>22</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
       <c r="H49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="I49">
+        <f>H49-G49</f>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="J49" s="5">
+        <f>IF(I49=0,0,H49/G49)</f>
+        <v>0.93047641325536068</v>
+      </c>
+      <c r="K49">
+        <f>RANK(J49,J:J)</f>
+        <v>35</v>
+      </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49">
+        <f>M49-L49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="5">
+        <f>IF(M49 = 0,0,M49/L49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,23 +3933,48 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50">
+        <f>C50-B50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f>IF(C50 =0,0,C50/B50)</f>
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <f>RANK(E50,E:E)</f>
+        <v>2</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50">
+        <f>H50-G50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>IF(I50=0,0,H50/G50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>RANK(J50,J:J)</f>
+        <v>48</v>
+      </c>
       <c r="L50">
         <v>843200</v>
       </c>
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="O50" s="5">
+        <f>IF(M50 = 0,0,M50/L50)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,23 +3984,52 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51">
+        <f>C51-B51</f>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f>IF(C51 =0,0,C51/B51)</f>
+        <v>0.98721474417794186</v>
+      </c>
+      <c r="F51">
+        <f>RANK(E51,E:E)</f>
+        <v>14</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
       <c r="H51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="I51">
+        <f>H51-G51</f>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="J51" s="5">
+        <f>IF(I51=0,0,H51/G51)</f>
+        <v>0.96342609601702978</v>
+      </c>
+      <c r="K51">
+        <f>RANK(J51,J:J)</f>
+        <v>17</v>
+      </c>
       <c r="L51">
         <v>8833900</v>
       </c>
       <c r="M51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="N51">
+        <f>M51-L51</f>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="O51" s="5">
+        <f>IF(M51 = 0,0,M51/L51)</f>
+        <v>0.9888999547198859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,28 +4039,57 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52">
+        <f>C52-B52</f>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f>IF(C52 =0,0,C52/B52)</f>
+        <v>0.91990403916768659</v>
+      </c>
+      <c r="F52">
+        <f>RANK(E52,E:E)</f>
+        <v>42</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
       <c r="H52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="I52">
+        <f>H52-G52</f>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="J52" s="5">
+        <f>IF(I52=0,0,H52/G52)</f>
+        <v>0.90329531691727782</v>
+      </c>
+      <c r="K52">
+        <f>RANK(J52,J:J)</f>
+        <v>39</v>
+      </c>
       <c r="L52">
         <v>2321600</v>
       </c>
       <c r="M52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" ht="15">
+      <c r="N52">
+        <f>M52-L52</f>
+        <v>-264764.74</v>
+      </c>
+      <c r="O52" s="5">
+        <f>IF(M52 = 0,0,M52/L52)</f>
+        <v>0.88595591833218468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +4103,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="B56">
+        <f>VLOOKUP($A56,A1:P52,4,0)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56">
+        <f>VLOOKUP($A56,A1:P52,9,0)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D56">
+        <f>VLOOKUP($A56,A1:P52,14,0)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B57">
+        <f t="shared" ref="B57:B61" si="0">VLOOKUP($A57,A2:P53,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C61" si="1">VLOOKUP($A57,A2:P53,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D61" si="2">VLOOKUP($A57,A2:P53,14,0)</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +4224,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+      <c r="B65">
+        <f>_xlfn.XLOOKUP($A65,A2:A52,D2:D52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65">
+        <f>_xlfn.XLOOKUP($A65,A2:A52,I2:I52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65">
+        <f>_xlfn.XLOOKUP($A65,A2:A52,N2:N52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+      <c r="B66">
+        <f t="shared" ref="B66:B70" si="3">_xlfn.XLOOKUP($A66,A3:A53,D3:D53)</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C70" si="4">_xlfn.XLOOKUP($A66,A3:A53,I3:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D70" si="5">_xlfn.XLOOKUP($A66,A3:A53,N3:N53)</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="5"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +4345,122 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+      <c r="B74">
+        <f>INDEX($D2:$D52,MATCH(A74,A2:A52,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74">
+        <f>INDEX($I2:$I52,MATCH(A74,A2:A52,0))</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D74">
+        <f>INDEX($N1:$N52,MATCH(A74,A1:A52,0))</f>
+        <v>-9181.0800000000163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75">
+        <f t="shared" ref="B75:B79" si="6">INDEX($D3:$D53,MATCH(A75,A3:A53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:C79" si="7">INDEX($I3:$I53,MATCH(A75,A3:A53,0))</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ref="D75:D79" si="8">INDEX($N2:$N53,MATCH(A75,A2:A53,0))</f>
+        <v>311228.08999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76">
+        <f t="shared" si="6"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="7"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="8"/>
+        <v>-374962.91000000015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77">
+        <f t="shared" si="6"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="7"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="8"/>
+        <v>-72.879999999888241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78">
+        <f t="shared" si="6"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="7"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="8"/>
+        <v>-1724.9000000000233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+      <c r="B79">
+        <f t="shared" si="6"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="7"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="8"/>
+        <v>-82077.349999999627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="B82" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +4468,51 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="B84" s="6">
+        <f>INDEX(B2:B52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>3329000</v>
+      </c>
+      <c r="C84" s="6">
+        <f>INDEX(C2:C52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>2946071.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="B85" s="6">
+        <f>INDEX(G2:G52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>3390900</v>
+      </c>
+      <c r="C85" s="6">
+        <f>INDEX(H2:H52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>3051483.41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+      <c r="B86" s="6">
+        <f>INDEX(L2:L52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>3345200</v>
+      </c>
+      <c r="C86" s="6">
+        <f>INDEX(M2:M52,MATCH($B$82,$A$2:$A$52))</f>
+        <v>2946440.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +4528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +4548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +4556,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +4564,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +4572,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +4593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +4613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +4622,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +4631,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,18 +4640,25 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+  <autoFilter ref="A1:P52" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P52">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:O52">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 A2" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82:B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{A61ECB63-D96F-4DB6-B2B5-5765765F08CB}">
+      <formula1>$A$2:$A$52</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2919,13 +4672,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +4686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +4694,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +4702,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +4710,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +4718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +4726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +4734,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +4742,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +4750,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSS_Data_Analytics\Projects\lookups-budget-HTMIV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994539B7-6D5D-4284-A107-D2E35246D305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0ED595-DECE-4054-BA11-EB950456378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -824,7 +825,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,6 +839,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1208,16 +1210,16 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1287,23 +1289,23 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>356640100</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>341243679.13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <f>C2-B2</f>
         <v>-15396420.870000005</v>
       </c>
       <c r="E2" s="5">
-        <f>IF(C2 =0,0,C2/B2)</f>
-        <v>0.95682924923473267</v>
+        <f>IF(C2=0,0,IF(C2-B2&lt;0,(C2-B2)*-1)/B2)</f>
+        <v>4.3170750765267295E-2</v>
       </c>
       <c r="F2">
         <f>RANK(E2,E:E)</f>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>382685200</v>
@@ -1316,12 +1318,12 @@
         <v>-36344389.180000007</v>
       </c>
       <c r="J2" s="5">
-        <f>IF(I2=0,0,H2/G2)</f>
-        <v>0.90502797291350701</v>
+        <f>IF(I2=0,0,IF(H2-G2&lt;0,(H2-G2)*-1/G2))</f>
+        <v>9.4972027086493035E-2</v>
       </c>
       <c r="K2">
         <f>RANK(J2,J:J)</f>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="L2">
         <v>376548600</v>
@@ -1334,8 +1336,8 @@
         <v>-21269107.770000994</v>
       </c>
       <c r="O2" s="5">
-        <f>IF(M2 = 0,0,M2/L2)</f>
-        <v>0.94351563710500852</v>
+        <f>IF(M2=0,0,IF(M2-L2&lt;0,(M2-L2)*-1/L2))</f>
+        <v>5.6484362894991494E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1353,12 +1355,12 @@
         <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5">
-        <f>IF(C3 =0,0,C3/B3)</f>
-        <v>0.97693001824817527</v>
+        <f>IF(C3=0,0,IF(C3-B3&lt;0,(C3-B3)*-1)/B3)</f>
+        <v>2.3069981751824741E-2</v>
       </c>
       <c r="F3">
         <f>RANK(E3,E:E)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>334800</v>
@@ -1371,12 +1373,12 @@
         <v>-22366.290000001027</v>
       </c>
       <c r="J3" s="5">
-        <f>IF(I3=0,0,H3/G3)</f>
-        <v>0.93319507168458471</v>
+        <f>IF(I3=0,0,IF(H3-G3&lt;0,(H3-G3)*-1/G3))</f>
+        <v>6.6804928315415249E-2</v>
       </c>
       <c r="K3">
         <f>RANK(J3,J:J)</f>
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L3">
         <v>322700</v>
@@ -1389,8 +1391,8 @@
         <v>-436.96000000002095</v>
       </c>
       <c r="O3" s="5">
-        <f>IF(M3 = 0,0,M3/L3)</f>
-        <v>0.99864592500774707</v>
+        <f>IF(M3=0,0,IF(M3-L3&lt;0,(M3-L3)*-1/L3))</f>
+        <v>1.3540749922529313E-3</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1408,12 +1410,12 @@
         <v>-15442.440000010189</v>
       </c>
       <c r="E4" s="5">
-        <f>IF(C4 =0,0,C4/B4)</f>
-        <v>0.99506725867245571</v>
+        <f>IF(C4=0,0,IF(C4-B4&lt;0,(C4-B4)*-1)/B4)</f>
+        <v>4.9327413275443007E-3</v>
       </c>
       <c r="F4">
         <f>RANK(E4,E:E)</f>
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="G4">
         <v>3652300</v>
@@ -1426,12 +1428,12 @@
         <v>-62606.790000009816</v>
       </c>
       <c r="J4" s="5">
-        <f>IF(I4=0,0,H4/G4)</f>
-        <v>0.982858256441144</v>
+        <f>IF(I4=0,0,IF(H4-G4&lt;0,(H4-G4)*-1/G4))</f>
+        <v>1.7141743558856015E-2</v>
       </c>
       <c r="K4">
         <f>RANK(J4,J:J)</f>
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L4">
         <v>3662400</v>
@@ -1444,8 +1446,8 @@
         <v>-97416.950000009965</v>
       </c>
       <c r="O4" s="5">
-        <f>IF(M4 = 0,0,M4/L4)</f>
-        <v>0.97340078910004102</v>
+        <f>IF(M4=0,0,IF(M4-L4&lt;0,(M4-L4)*-1/L4))</f>
+        <v>2.6599210899959033E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1463,12 +1465,12 @@
         <v>-723147.33000000007</v>
       </c>
       <c r="E5" s="5">
-        <f>IF(C5 =0,0,C5/B5)</f>
-        <v>0.90572603152254683</v>
+        <f>IF(C5=0,0,IF(C5-B5&lt;0,(C5-B5)*-1)/B5)</f>
+        <v>9.4273968477453174E-2</v>
       </c>
       <c r="F5">
         <f>RANK(E5,E:E)</f>
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>7968300</v>
@@ -1481,12 +1483,12 @@
         <v>-947690.6799999997</v>
       </c>
       <c r="J5" s="5">
-        <f>IF(I5=0,0,H5/G5)</f>
-        <v>0.88106739455090799</v>
+        <f>IF(I5=0,0,IF(H5-G5&lt;0,(H5-G5)*-1/G5))</f>
+        <v>0.118932605449092</v>
       </c>
       <c r="K5">
         <f>RANK(J5,J:J)</f>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>7759600</v>
@@ -1499,8 +1501,8 @@
         <v>-262277.08999999985</v>
       </c>
       <c r="O5" s="5">
-        <f>IF(M5 = 0,0,M5/L5)</f>
-        <v>0.9661996636424558</v>
+        <f>IF(M5=0,0,IF(M5-L5&lt;0,(M5-L5)*-1/L5))</f>
+        <v>3.3800336357544182E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1518,12 +1520,12 @@
         <v>-23391.479999999981</v>
       </c>
       <c r="E6" s="5">
-        <f>IF(C6 =0,0,C6/B6)</f>
-        <v>0.94285003664793554</v>
+        <f>IF(C6=0,0,IF(C6-B6&lt;0,(C6-B6)*-1)/B6)</f>
+        <v>5.7149963352064452E-2</v>
       </c>
       <c r="F6">
         <f>RANK(E6,E:E)</f>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>428500</v>
@@ -1536,12 +1538,12 @@
         <v>-741.35999999998603</v>
       </c>
       <c r="J6" s="5">
-        <f>IF(I6=0,0,H6/G6)</f>
-        <v>0.99826987164527425</v>
+        <f>IF(I6=0,0,IF(H6-G6&lt;0,(H6-G6)*-1/G6))</f>
+        <v>1.7301283547257551E-3</v>
       </c>
       <c r="K6">
         <f>RANK(J6,J:J)</f>
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <v>445200</v>
@@ -1554,8 +1556,8 @@
         <v>-85.710000001010485</v>
       </c>
       <c r="O6" s="5">
-        <f>IF(M6 = 0,0,M6/L6)</f>
-        <v>0.99980747978436435</v>
+        <f>IF(M6=0,0,IF(M6-L6&lt;0,(M6-L6)*-1/L6))</f>
+        <v>1.925202156356929E-4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1573,12 +1575,12 @@
         <v>-382928.79000000004</v>
       </c>
       <c r="E7" s="5">
-        <f>IF(C7 =0,0,C7/B7)</f>
-        <v>0.88497182637428651</v>
+        <f>IF(C7=0,0,IF(C7-B7&lt;0,(C7-B7)*-1)/B7)</f>
+        <v>0.11502817362571344</v>
       </c>
       <c r="F7">
         <f>RANK(E7,E:E)</f>
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>3390900</v>
@@ -1591,12 +1593,12 @@
         <v>-339416.58999999985</v>
       </c>
       <c r="J7" s="5">
-        <f>IF(I7=0,0,H7/G7)</f>
-        <v>0.89990368633696072</v>
+        <f>IF(I7=0,0,IF(H7-G7&lt;0,(H7-G7)*-1/G7))</f>
+        <v>0.10009631366303927</v>
       </c>
       <c r="K7">
         <f>RANK(J7,J:J)</f>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>3345200</v>
@@ -1609,8 +1611,8 @@
         <v>-398759.91999999993</v>
       </c>
       <c r="O7" s="5">
-        <f>IF(M7 = 0,0,M7/L7)</f>
-        <v>0.8807963888556738</v>
+        <f>IF(M7=0,0,IF(M7-L7&lt;0,(M7-L7)*-1/L7))</f>
+        <v>0.11920361114432618</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1628,12 +1630,12 @@
         <v>-236476.69000000996</v>
       </c>
       <c r="E8" s="5">
-        <f>IF(C8 =0,0,C8/B8)</f>
-        <v>0.84764081566908711</v>
+        <f>IF(C8=0,0,IF(C8-B8&lt;0,(C8-B8)*-1)/B8)</f>
+        <v>0.15235918433091292</v>
       </c>
       <c r="F8">
         <f>RANK(E8,E:E)</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1590700</v>
@@ -1646,12 +1648,12 @@
         <v>-206794.01000001002</v>
       </c>
       <c r="J8" s="5">
-        <f>IF(I8=0,0,H8/G8)</f>
-        <v>0.86999810775129816</v>
+        <f>IF(I8=0,0,IF(H8-G8&lt;0,(H8-G8)*-1/G8))</f>
+        <v>0.13000189224870184</v>
       </c>
       <c r="K8">
         <f>RANK(J8,J:J)</f>
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1579300</v>
@@ -1664,8 +1666,8 @@
         <v>-241564.68000000995</v>
       </c>
       <c r="O8" s="5">
-        <f>IF(M8 = 0,0,M8/L8)</f>
-        <v>0.84704319635280823</v>
+        <f>IF(M8=0,0,IF(M8-L8&lt;0,(M8-L8)*-1/L8))</f>
+        <v>0.15295680364719175</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1683,12 +1685,12 @@
         <v>-396574.72000000067</v>
       </c>
       <c r="E9" s="5">
-        <f>IF(C9 =0,0,C9/B9)</f>
-        <v>0.95758286948895111</v>
+        <f>IF(C9=0,0,IF(C9-B9&lt;0,(C9-B9)*-1)/B9)</f>
+        <v>4.2417130511048909E-2</v>
       </c>
       <c r="F9">
         <f>RANK(E9,E:E)</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G9">
         <v>11073700</v>
@@ -1701,12 +1703,12 @@
         <v>-1144640.4800000004</v>
       </c>
       <c r="J9" s="5">
-        <f>IF(I9=0,0,H9/G9)</f>
-        <v>0.89663432457082992</v>
+        <f>IF(I9=0,0,IF(H9-G9&lt;0,(H9-G9)*-1/G9))</f>
+        <v>0.10336567542917005</v>
       </c>
       <c r="K9">
         <f>RANK(J9,J:J)</f>
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>10790500</v>
@@ -1719,8 +1721,8 @@
         <v>-796900.47000000998</v>
       </c>
       <c r="O9" s="5">
-        <f>IF(M9 = 0,0,M9/L9)</f>
-        <v>0.92614795699921137</v>
+        <f>IF(M9=0,0,IF(M9-L9&lt;0,(M9-L9)*-1/L9))</f>
+        <v>7.3852043000788653E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1738,12 +1740,12 @@
         <v>-36209.630000000005</v>
       </c>
       <c r="E10" s="5">
-        <f>IF(C10 =0,0,C10/B10)</f>
-        <v>0.91831800135348518</v>
+        <f>IF(C10=0,0,IF(C10-B10&lt;0,(C10-B10)*-1)/B10)</f>
+        <v>8.1681998646514792E-2</v>
       </c>
       <c r="F10">
         <f>RANK(E10,E:E)</f>
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>495200</v>
@@ -1756,12 +1758,12 @@
         <v>-27292.159999999974</v>
       </c>
       <c r="J10" s="5">
-        <f>IF(I10=0,0,H10/G10)</f>
-        <v>0.94488659127625207</v>
+        <f>IF(I10=0,0,IF(H10-G10&lt;0,(H10-G10)*-1/G10))</f>
+        <v>5.5113408723747932E-2</v>
       </c>
       <c r="K10">
         <f>RANK(J10,J:J)</f>
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>487500</v>
@@ -1774,8 +1776,8 @@
         <v>-9181.0800000000163</v>
       </c>
       <c r="O10" s="5">
-        <f>IF(M10 = 0,0,M10/L10)</f>
-        <v>0.98116701538461537</v>
+        <f>IF(M10=0,0,IF(M10-L10&lt;0,(M10-L10)*-1/L10))</f>
+        <v>1.883298461538465E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1793,12 +1795,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="5">
-        <f>IF(C11 =0,0,C11/B11)</f>
+        <f>IF(C11=0,0,IF(C11-B11&lt;0,(C11-B11)*-1)/B11)</f>
         <v>0</v>
       </c>
       <c r="F11">
         <f>RANK(E11,E:E)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1811,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <f>IF(I11=0,0,H11/G11)</f>
+        <f>IF(I11=0,0,IF(H11-G11&lt;0,(H11-G11)*-1/G11))</f>
         <v>0</v>
       </c>
       <c r="K11">
@@ -1829,8 +1831,8 @@
         <v>311228.08999999997</v>
       </c>
       <c r="O11" s="5">
-        <f>IF(M11 = 0,0,M11/L11)</f>
-        <v>0.17005842666666668</v>
+        <f>IF(M11=0,0,IF(M11-L11&lt;0,(M11-L11)*-1/L11))</f>
+        <v>0.82994157333333329</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1848,12 +1850,12 @@
         <v>-214304.66999999993</v>
       </c>
       <c r="E12" s="5">
-        <f>IF(C12 =0,0,C12/B12)</f>
-        <v>0.94993934219439835</v>
+        <f>IF(C12=0,0,IF(C12-B12&lt;0,(C12-B12)*-1)/B12)</f>
+        <v>5.0060657805601608E-2</v>
       </c>
       <c r="F12">
         <f>RANK(E12,E:E)</f>
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>4700400</v>
@@ -1866,12 +1868,12 @@
         <v>-494844.40000000037</v>
       </c>
       <c r="J12" s="5">
-        <f>IF(I12=0,0,H12/G12)</f>
-        <v>0.89472291719853625</v>
+        <f>IF(I12=0,0,IF(H12-G12&lt;0,(H12-G12)*-1/G12))</f>
+        <v>0.10527708280146378</v>
       </c>
       <c r="K12">
         <f>RANK(J12,J:J)</f>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>4677800</v>
@@ -1884,8 +1886,8 @@
         <v>-306086.86000000034</v>
       </c>
       <c r="O12" s="5">
-        <f>IF(M12 = 0,0,M12/L12)</f>
-        <v>0.9345660652443456</v>
+        <f>IF(M12=0,0,IF(M12-L12&lt;0,(M12-L12)*-1/L12))</f>
+        <v>6.5433934755654441E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1903,12 +1905,12 @@
         <v>-75511.669999999925</v>
       </c>
       <c r="E13" s="5">
-        <f>IF(C13 =0,0,C13/B13)</f>
-        <v>0.98708716611375225</v>
+        <f>IF(C13=0,0,IF(C13-B13&lt;0,(C13-B13)*-1)/B13)</f>
+        <v>1.2912833886247806E-2</v>
       </c>
       <c r="F13">
         <f>RANK(E13,E:E)</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>6223700</v>
@@ -1921,12 +1923,12 @@
         <v>-314622.06000000983</v>
       </c>
       <c r="J13" s="5">
-        <f>IF(I13=0,0,H13/G13)</f>
-        <v>0.94944774651734343</v>
+        <f>IF(I13=0,0,IF(H13-G13&lt;0,(H13-G13)*-1/G13))</f>
+        <v>5.0552253482656594E-2</v>
       </c>
       <c r="K13">
         <f>RANK(J13,J:J)</f>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L13">
         <v>6207300</v>
@@ -1939,8 +1941,8 @@
         <v>-150323.33000000007</v>
       </c>
       <c r="O13" s="5">
-        <f>IF(M13 = 0,0,M13/L13)</f>
-        <v>0.97578281539477707</v>
+        <f>IF(M13=0,0,IF(M13-L13&lt;0,(M13-L13)*-1/L13))</f>
+        <v>2.4217184605222895E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1958,12 +1960,12 @@
         <v>-6982.6300000000047</v>
       </c>
       <c r="E14" s="5">
-        <f>IF(C14 =0,0,C14/B14)</f>
-        <v>0.98636205078124994</v>
+        <f>IF(C14=0,0,IF(C14-B14&lt;0,(C14-B14)*-1)/B14)</f>
+        <v>1.3637949218750009E-2</v>
       </c>
       <c r="F14">
         <f>RANK(E14,E:E)</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G14">
         <v>530500</v>
@@ -1976,12 +1978,12 @@
         <v>-6097.0200000000186</v>
       </c>
       <c r="J14" s="5">
-        <f>IF(I14=0,0,H14/G14)</f>
-        <v>0.98850703110273319</v>
+        <f>IF(I14=0,0,IF(H14-G14&lt;0,(H14-G14)*-1/G14))</f>
+        <v>1.1492968897266765E-2</v>
       </c>
       <c r="K14">
         <f>RANK(J14,J:J)</f>
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>526200</v>
@@ -1994,8 +1996,8 @@
         <v>-21210.119999999995</v>
       </c>
       <c r="O14" s="5">
-        <f>IF(M14 = 0,0,M14/L14)</f>
-        <v>0.95969190421892814</v>
+        <f>IF(M14=0,0,IF(M14-L14&lt;0,(M14-L14)*-1/L14))</f>
+        <v>4.0308095781071827E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2013,12 +2015,12 @@
         <v>496819.90000000596</v>
       </c>
       <c r="E15" s="5">
-        <f>IF(C15 =0,0,C15/B15)</f>
-        <v>1.0031837408866826</v>
+        <f>IF(C15=0,0,IF(C15-B15&lt;0,(C15-B15)*-1)/B15)</f>
+        <v>0</v>
       </c>
       <c r="F15">
         <f>RANK(E15,E:E)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G15">
         <v>184167800</v>
@@ -2031,8 +2033,8 @@
         <v>-8201410.7500010133</v>
       </c>
       <c r="J15" s="5">
-        <f>IF(I15=0,0,H15/G15)</f>
-        <v>0.95546772698592797</v>
+        <f>IF(I15=0,0,IF(H15-G15&lt;0,(H15-G15)*-1/G15))</f>
+        <v>4.4532273014072019E-2</v>
       </c>
       <c r="K15">
         <f>RANK(J15,J:J)</f>
@@ -2049,8 +2051,8 @@
         <v>107</v>
       </c>
       <c r="O15" s="5">
-        <f>IF(M15 = 0,0,M15/L15)</f>
-        <v>0.97617091427255387</v>
+        <f>IF(M15=0,0,IF(M15-L15&lt;0,(M15-L15)*-1/L15))</f>
+        <v>2.3829085727446114E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2068,12 +2070,12 @@
         <v>-78219.540000010282</v>
       </c>
       <c r="E16" s="5">
-        <f>IF(C16 =0,0,C16/B16)</f>
-        <v>0.98814981138363955</v>
+        <f>IF(C16=0,0,IF(C16-B16&lt;0,(C16-B16)*-1)/B16)</f>
+        <v>1.1850188616360429E-2</v>
       </c>
       <c r="F16">
         <f>RANK(E16,E:E)</f>
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G16">
         <v>7352500</v>
@@ -2086,12 +2088,12 @@
         <v>-2035.9199999999255</v>
       </c>
       <c r="J16" s="5">
-        <f>IF(I16=0,0,H16/G16)</f>
-        <v>0.999723098265896</v>
+        <f>IF(I16=0,0,IF(H16-G16&lt;0,(H16-G16)*-1/G16))</f>
+        <v>2.769017341040361E-4</v>
       </c>
       <c r="K16">
         <f>RANK(J16,J:J)</f>
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="L16">
         <v>7397200</v>
@@ -2104,8 +2106,8 @@
         <v>-107</v>
       </c>
       <c r="O16" s="5">
-        <f>IF(M16 = 0,0,M16/L16)</f>
-        <v>0.99998553506732279</v>
+        <f>IF(M16=0,0,IF(M16-L16&lt;0,(M16-L16)*-1/L16))</f>
+        <v>1.4464932677229222E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2123,12 +2125,12 @@
         <v>-421319.94999999925</v>
       </c>
       <c r="E17" s="5">
-        <f>IF(C17 =0,0,C17/B17)</f>
-        <v>0.97164890517334201</v>
+        <f>IF(C17=0,0,IF(C17-B17&lt;0,(C17-B17)*-1)/B17)</f>
+        <v>2.8351094826658003E-2</v>
       </c>
       <c r="F17">
         <f>RANK(E17,E:E)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G17">
         <v>15309700</v>
@@ -2141,12 +2143,12 @@
         <v>-664466.49000000022</v>
       </c>
       <c r="J17" s="5">
-        <f>IF(I17=0,0,H17/G17)</f>
-        <v>0.95659833373612801</v>
+        <f>IF(I17=0,0,IF(H17-G17&lt;0,(H17-G17)*-1/G17))</f>
+        <v>4.3401666263871937E-2</v>
       </c>
       <c r="K17">
         <f>RANK(J17,J:J)</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17">
         <v>15311800</v>
@@ -2159,8 +2161,8 @@
         <v>-965742.96000000089</v>
       </c>
       <c r="O17" s="5">
-        <f>IF(M17 = 0,0,M17/L17)</f>
-        <v>0.93692818871719841</v>
+        <f>IF(M17=0,0,IF(M17-L17&lt;0,(M17-L17)*-1/L17))</f>
+        <v>6.3071811282801551E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2178,12 +2180,12 @@
         <v>-149396.10000000987</v>
       </c>
       <c r="E18" s="5">
-        <f>IF(C18 =0,0,C18/B18)</f>
-        <v>0.94596299779360871</v>
+        <f>IF(C18=0,0,IF(C18-B18&lt;0,(C18-B18)*-1)/B18)</f>
+        <v>5.4037002206391245E-2</v>
       </c>
       <c r="F18">
         <f>RANK(E18,E:E)</f>
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G18">
         <v>2861000</v>
@@ -2196,12 +2198,12 @@
         <v>-189254.06000000006</v>
       </c>
       <c r="J18" s="5">
-        <f>IF(I18=0,0,H18/G18)</f>
-        <v>0.9338503809856693</v>
+        <f>IF(I18=0,0,IF(H18-G18&lt;0,(H18-G18)*-1/G18))</f>
+        <v>6.6149619014330668E-2</v>
       </c>
       <c r="K18">
         <f>RANK(J18,J:J)</f>
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <v>2910600</v>
@@ -2214,8 +2216,8 @@
         <v>-374962.91000000015</v>
       </c>
       <c r="O18" s="5">
-        <f>IF(M18 = 0,0,M18/L18)</f>
-        <v>0.87117332852332852</v>
+        <f>IF(M18=0,0,IF(M18-L18&lt;0,(M18-L18)*-1/L18))</f>
+        <v>0.12882667147667154</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -2233,12 +2235,12 @@
         <v>-376336.80000001006</v>
       </c>
       <c r="E19" s="5">
-        <f>IF(C19 =0,0,C19/B19)</f>
-        <v>0.95741495705701851</v>
+        <f>IF(C19=0,0,IF(C19-B19&lt;0,(C19-B19)*-1)/B19)</f>
+        <v>4.258504294298146E-2</v>
       </c>
       <c r="F19">
         <f>RANK(E19,E:E)</f>
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <v>9713300</v>
@@ -2251,12 +2253,12 @@
         <v>-721592.76000000909</v>
       </c>
       <c r="J19" s="5">
-        <f>IF(I19=0,0,H19/G19)</f>
-        <v>0.92571085418961541</v>
+        <f>IF(I19=0,0,IF(H19-G19&lt;0,(H19-G19)*-1/G19))</f>
+        <v>7.4289145810384635E-2</v>
       </c>
       <c r="K19">
         <f>RANK(J19,J:J)</f>
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="L19">
         <v>9343000</v>
@@ -2269,8 +2271,8 @@
         <v>-576344.08999999985</v>
       </c>
       <c r="O19" s="5">
-        <f>IF(M19 = 0,0,M19/L19)</f>
-        <v>0.93831273787862568</v>
+        <f>IF(M19=0,0,IF(M19-L19&lt;0,(M19-L19)*-1/L19))</f>
+        <v>6.1687262121374278E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2288,12 +2290,12 @@
         <v>-1539.8400010019541</v>
       </c>
       <c r="E20" s="5">
-        <f>IF(C20 =0,0,C20/B20)</f>
-        <v>0.99998762046179668</v>
+        <f>IF(C20=0,0,IF(C20-B20&lt;0,(C20-B20)*-1)/B20)</f>
+        <v>1.2379538203300809E-5</v>
       </c>
       <c r="F20">
         <f>RANK(E20,E:E)</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>131849400</v>
@@ -2306,12 +2308,12 @@
         <v>-9775.6299999952316</v>
       </c>
       <c r="J20" s="5">
-        <f>IF(I20=0,0,H20/G20)</f>
-        <v>0.99992585760723984</v>
+        <f>IF(I20=0,0,IF(H20-G20&lt;0,(H20-G20)*-1/G20))</f>
+        <v>7.4142392760188761E-5</v>
       </c>
       <c r="K20">
         <f>RANK(J20,J:J)</f>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>130621400</v>
@@ -2324,8 +2326,8 @@
         <v>-116.46000100672245</v>
       </c>
       <c r="O20" s="5">
-        <f>IF(M20 = 0,0,M20/L20)</f>
-        <v>0.99999910841561179</v>
+        <f>IF(M20=0,0,IF(M20-L20&lt;0,(M20-L20)*-1/L20))</f>
+        <v>8.9158438821450736E-7</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2343,12 +2345,12 @@
         <v>-1923512.4500000998</v>
       </c>
       <c r="E21" s="5">
-        <f>IF(C21 =0,0,C21/B21)</f>
-        <v>0.92094753638197691</v>
+        <f>IF(C21=0,0,IF(C21-B21&lt;0,(C21-B21)*-1)/B21)</f>
+        <v>7.9052463618023094E-2</v>
       </c>
       <c r="F21">
         <f>RANK(E21,E:E)</f>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>24497400</v>
@@ -2361,12 +2363,12 @@
         <v>-1841406.370000001</v>
       </c>
       <c r="J21" s="5">
-        <f>IF(I21=0,0,H21/G21)</f>
-        <v>0.92483257937577046</v>
+        <f>IF(I21=0,0,IF(H21-G21&lt;0,(H21-G21)*-1/G21))</f>
+        <v>7.5167420624229556E-2</v>
       </c>
       <c r="K21">
         <f>RANK(J21,J:J)</f>
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="L21">
         <v>24323000</v>
@@ -2379,8 +2381,8 @@
         <v>-888926.91000010073</v>
       </c>
       <c r="O21" s="5">
-        <f>IF(M21 = 0,0,M21/L21)</f>
-        <v>0.96345323726513588</v>
+        <f>IF(M21=0,0,IF(M21-L21&lt;0,(M21-L21)*-1/L21))</f>
+        <v>3.6546762734864152E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2398,12 +2400,12 @@
         <v>-153660.12000009976</v>
       </c>
       <c r="E22" s="5">
-        <f>IF(C22 =0,0,C22/B22)</f>
-        <v>0.98671449766556285</v>
+        <f>IF(C22=0,0,IF(C22-B22&lt;0,(C22-B22)*-1)/B22)</f>
+        <v>1.3285502334437123E-2</v>
       </c>
       <c r="F22">
         <f>RANK(E22,E:E)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>11980700</v>
@@ -2416,12 +2418,12 @@
         <v>-188722.03000009991</v>
       </c>
       <c r="J22" s="5">
-        <f>IF(I22=0,0,H22/G22)</f>
-        <v>0.98424782942565125</v>
+        <f>IF(I22=0,0,IF(H22-G22&lt;0,(H22-G22)*-1/G22))</f>
+        <v>1.5752170574348738E-2</v>
       </c>
       <c r="K22">
         <f>RANK(J22,J:J)</f>
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="L22">
         <v>11935200</v>
@@ -2434,8 +2436,8 @@
         <v>-745.23000000044703</v>
       </c>
       <c r="O22" s="5">
-        <f>IF(M22 = 0,0,M22/L22)</f>
-        <v>0.99993756032575909</v>
+        <f>IF(M22=0,0,IF(M22-L22&lt;0,(M22-L22)*-1/L22))</f>
+        <v>6.2439674240938325E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2453,12 +2455,12 @@
         <v>-825956.59000010043</v>
       </c>
       <c r="E23" s="5">
-        <f>IF(C23 =0,0,C23/B23)</f>
-        <v>0.96040988989919329</v>
+        <f>IF(C23=0,0,IF(C23-B23&lt;0,(C23-B23)*-1)/B23)</f>
+        <v>3.9590110100806722E-2</v>
       </c>
       <c r="F23">
         <f>RANK(E23,E:E)</f>
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G23">
         <v>22683800</v>
@@ -2471,12 +2473,12 @@
         <v>-961673.78000010177</v>
       </c>
       <c r="J23" s="5">
-        <f>IF(I23=0,0,H23/G23)</f>
-        <v>0.95760526102328081</v>
+        <f>IF(I23=0,0,IF(H23-G23&lt;0,(H23-G23)*-1/G23))</f>
+        <v>4.2394738976719144E-2</v>
       </c>
       <c r="K23">
         <f>RANK(J23,J:J)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L23">
         <v>23220300</v>
@@ -2489,8 +2491,8 @@
         <v>-601242.55999999866</v>
       </c>
       <c r="O23" s="5">
-        <f>IF(M23 = 0,0,M23/L23)</f>
-        <v>0.97410702876362498</v>
+        <f>IF(M23=0,0,IF(M23-L23&lt;0,(M23-L23)*-1/L23))</f>
+        <v>2.5892971236375011E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,12 +2510,12 @@
         <v>-12230.810000000056</v>
       </c>
       <c r="E24" s="5">
-        <f>IF(C24 =0,0,C24/B24)</f>
-        <v>0.98666505669428695</v>
+        <f>IF(C24=0,0,IF(C24-B24&lt;0,(C24-B24)*-1)/B24)</f>
+        <v>1.3334943305713101E-2</v>
       </c>
       <c r="F24">
         <f>RANK(E24,E:E)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G24">
         <v>1112700</v>
@@ -2526,12 +2528,12 @@
         <v>-45485.580000000075</v>
       </c>
       <c r="J24" s="5">
-        <f>IF(I24=0,0,H24/G24)</f>
-        <v>0.95912143434888109</v>
+        <f>IF(I24=0,0,IF(H24-G24&lt;0,(H24-G24)*-1/G24))</f>
+        <v>4.087856565111897E-2</v>
       </c>
       <c r="K24">
         <f>RANK(J24,J:J)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L24">
         <v>1112600</v>
@@ -2544,8 +2546,8 @@
         <v>-72.879999999888241</v>
       </c>
       <c r="O24" s="5">
-        <f>IF(M24 = 0,0,M24/L24)</f>
-        <v>0.99993449577566074</v>
+        <f>IF(M24=0,0,IF(M24-L24&lt;0,(M24-L24)*-1/L24))</f>
+        <v>6.5504224339284781E-5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2563,12 +2565,12 @@
         <v>-4950.4699999999721</v>
       </c>
       <c r="E25" s="5">
-        <f>IF(C25 =0,0,C25/B25)</f>
-        <v>0.98977386903532338</v>
+        <f>IF(C25=0,0,IF(C25-B25&lt;0,(C25-B25)*-1)/B25)</f>
+        <v>1.0226130964676661E-2</v>
       </c>
       <c r="F25">
         <f>RANK(E25,E:E)</f>
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G25">
         <v>505200</v>
@@ -2581,12 +2583,12 @@
         <v>-8005.7900000010268</v>
       </c>
       <c r="J25" s="5">
-        <f>IF(I25=0,0,H25/G25)</f>
-        <v>0.98415322644497027</v>
+        <f>IF(I25=0,0,IF(H25-G25&lt;0,(H25-G25)*-1/G25))</f>
+        <v>1.5846773555029746E-2</v>
       </c>
       <c r="K25">
         <f>RANK(J25,J:J)</f>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L25">
         <v>496500</v>
@@ -2599,8 +2601,8 @@
         <v>-1724.9000000000233</v>
       </c>
       <c r="O25" s="5">
-        <f>IF(M25 = 0,0,M25/L25)</f>
-        <v>0.9965258811681772</v>
+        <f>IF(M25=0,0,IF(M25-L25&lt;0,(M25-L25)*-1/L25))</f>
+        <v>3.4741188318228064E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2618,12 +2620,12 @@
         <v>-447839.91999999993</v>
       </c>
       <c r="E26" s="5">
-        <f>IF(C26 =0,0,C26/B26)</f>
-        <v>0.91469390833936537</v>
+        <f>IF(C26=0,0,IF(C26-B26&lt;0,(C26-B26)*-1)/B26)</f>
+        <v>8.5306091660634673E-2</v>
       </c>
       <c r="F26">
         <f>RANK(E26,E:E)</f>
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>5442200</v>
@@ -2636,12 +2638,12 @@
         <v>-319870.97000000998</v>
       </c>
       <c r="J26" s="5">
-        <f>IF(I26=0,0,H26/G26)</f>
-        <v>0.94122395906067213</v>
+        <f>IF(I26=0,0,IF(H26-G26&lt;0,(H26-G26)*-1/G26))</f>
+        <v>5.8776040939327839E-2</v>
       </c>
       <c r="K26">
         <f>RANK(J26,J:J)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L26">
         <v>5430700</v>
@@ -2654,8 +2656,8 @@
         <v>-313464.79000000004</v>
       </c>
       <c r="O26" s="5">
-        <f>IF(M26 = 0,0,M26/L26)</f>
-        <v>0.94227911871397796</v>
+        <f>IF(M26=0,0,IF(M26-L26&lt;0,(M26-L26)*-1/L26))</f>
+        <v>5.7720881286022069E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2673,12 +2675,12 @@
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f>IF(C27 =0,0,C27/B27)</f>
+        <f>IF(C27=0,0,IF(C27-B27&lt;0,(C27-B27)*-1)/B27)</f>
         <v>0</v>
       </c>
       <c r="F27">
         <f>RANK(E27,E:E)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2691,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f>IF(I27=0,0,H27/G27)</f>
+        <f>IF(I27=0,0,IF(H27-G27&lt;0,(H27-G27)*-1/G27))</f>
         <v>0</v>
       </c>
       <c r="K27">
@@ -2709,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="5">
-        <f>IF(M27 = 0,0,M27/L27)</f>
+        <f>IF(M27=0,0,IF(M27-L27&lt;0,(M27-L27)*-1/L27))</f>
         <v>0</v>
       </c>
     </row>
@@ -2728,12 +2730,12 @@
         <v>-132457.97999999998</v>
       </c>
       <c r="E28" s="5">
-        <f>IF(C28 =0,0,C28/B28)</f>
-        <v>0.90421723913515073</v>
+        <f>IF(C28=0,0,IF(C28-B28&lt;0,(C28-B28)*-1)/B28)</f>
+        <v>9.5782760864849215E-2</v>
       </c>
       <c r="F28">
         <f>RANK(E28,E:E)</f>
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <v>1545700</v>
@@ -2746,12 +2748,12 @@
         <v>-264364.77</v>
       </c>
       <c r="J28" s="5">
-        <f>IF(I28=0,0,H28/G28)</f>
-        <v>0.82896760690949078</v>
+        <f>IF(I28=0,0,IF(H28-G28&lt;0,(H28-G28)*-1/G28))</f>
+        <v>0.17103239309050916</v>
       </c>
       <c r="K28">
         <f>RANK(J28,J:J)</f>
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>1525900</v>
@@ -2764,8 +2766,8 @@
         <v>-132614.93999999994</v>
       </c>
       <c r="O28" s="5">
-        <f>IF(M28 = 0,0,M28/L28)</f>
-        <v>0.91309067435611779</v>
+        <f>IF(M28=0,0,IF(M28-L28&lt;0,(M28-L28)*-1/L28))</f>
+        <v>8.6909325643882263E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2783,12 +2785,12 @@
         <v>-37915.290000000037</v>
       </c>
       <c r="E29" s="5">
-        <f>IF(C29 =0,0,C29/B29)</f>
-        <v>0.98519974627215234</v>
+        <f>IF(C29=0,0,IF(C29-B29&lt;0,(C29-B29)*-1)/B29)</f>
+        <v>1.4800253727847622E-2</v>
       </c>
       <c r="F29">
         <f>RANK(E29,E:E)</f>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G29">
         <v>2779500</v>
@@ -2801,12 +2803,12 @@
         <v>-114235.56000000983</v>
       </c>
       <c r="J29" s="5">
-        <f>IF(I29=0,0,H29/G29)</f>
-        <v>0.95890067997840989</v>
+        <f>IF(I29=0,0,IF(H29-G29&lt;0,(H29-G29)*-1/G29))</f>
+        <v>4.1099320021590155E-2</v>
       </c>
       <c r="K29">
         <f>RANK(J29,J:J)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L29">
         <v>2889900</v>
@@ -2819,8 +2821,8 @@
         <v>-35.330000000074506</v>
       </c>
       <c r="O29" s="5">
-        <f>IF(M29 = 0,0,M29/L29)</f>
-        <v>0.9999877746634831</v>
+        <f>IF(M29=0,0,IF(M29-L29&lt;0,(M29-L29)*-1/L29))</f>
+        <v>1.2225336516860273E-5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2838,12 +2840,12 @@
         <v>-101705.90000000037</v>
       </c>
       <c r="E30" s="5">
-        <f>IF(C30 =0,0,C30/B30)</f>
-        <v>0.99161686256408565</v>
+        <f>IF(C30=0,0,IF(C30-B30&lt;0,(C30-B30)*-1)/B30)</f>
+        <v>8.3831374359143746E-3</v>
       </c>
       <c r="F30">
         <f>RANK(E30,E:E)</f>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>12735900</v>
@@ -2856,12 +2858,12 @@
         <v>-50385.720000099391</v>
       </c>
       <c r="J30" s="5">
-        <f>IF(I30=0,0,H30/G30)</f>
-        <v>0.99604380373588841</v>
+        <f>IF(I30=0,0,IF(H30-G30&lt;0,(H30-G30)*-1/G30))</f>
+        <v>3.9561962641116366E-3</v>
       </c>
       <c r="K30">
         <f>RANK(J30,J:J)</f>
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <v>12861300</v>
@@ -2874,8 +2876,8 @@
         <v>-35290.390000000596</v>
       </c>
       <c r="O30" s="5">
-        <f>IF(M30 = 0,0,M30/L30)</f>
-        <v>0.99725607908998304</v>
+        <f>IF(M30=0,0,IF(M30-L30&lt;0,(M30-L30)*-1/L30))</f>
+        <v>2.7439209100169185E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2893,12 +2895,12 @@
         <v>-24772.310000000056</v>
       </c>
       <c r="E31" s="5">
-        <f>IF(C31 =0,0,C31/B31)</f>
-        <v>0.98596946647032169</v>
+        <f>IF(C31=0,0,IF(C31-B31&lt;0,(C31-B31)*-1)/B31)</f>
+        <v>1.4030533529678329E-2</v>
       </c>
       <c r="F31">
         <f>RANK(E31,E:E)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G31">
         <v>1823300</v>
@@ -2911,12 +2913,12 @@
         <v>-60623.149999999907</v>
       </c>
       <c r="J31" s="5">
-        <f>IF(I31=0,0,H31/G31)</f>
-        <v>0.9667508638183514</v>
+        <f>IF(I31=0,0,IF(H31-G31&lt;0,(H31-G31)*-1/G31))</f>
+        <v>3.3249136181648611E-2</v>
       </c>
       <c r="K31">
         <f>RANK(J31,J:J)</f>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L31">
         <v>1870700</v>
@@ -2929,8 +2931,8 @@
         <v>-69308.659999999916</v>
       </c>
       <c r="O31" s="5">
-        <f>IF(M31 = 0,0,M31/L31)</f>
-        <v>0.96295041428342332</v>
+        <f>IF(M31=0,0,IF(M31-L31&lt;0,(M31-L31)*-1/L31))</f>
+        <v>3.7049585716576634E-2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2948,12 +2950,12 @@
         <v>-73762.280000009574</v>
       </c>
       <c r="E32" s="5">
-        <f>IF(C32 =0,0,C32/B32)</f>
-        <v>0.98770505717238233</v>
+        <f>IF(C32=0,0,IF(C32-B32&lt;0,(C32-B32)*-1)/B32)</f>
+        <v>1.2294942827617691E-2</v>
       </c>
       <c r="F32">
         <f>RANK(E32,E:E)</f>
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>6195500</v>
@@ -2966,12 +2968,12 @@
         <v>-110514.53000000026</v>
       </c>
       <c r="J32" s="5">
-        <f>IF(I32=0,0,H32/G32)</f>
-        <v>0.982162128964571</v>
+        <f>IF(I32=0,0,IF(H32-G32&lt;0,(H32-G32)*-1/G32))</f>
+        <v>1.7837871035428981E-2</v>
       </c>
       <c r="K32">
         <f>RANK(J32,J:J)</f>
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>6157400</v>
@@ -2984,8 +2986,8 @@
         <v>-169827.98000000045</v>
       </c>
       <c r="O32" s="5">
-        <f>IF(M32 = 0,0,M32/L32)</f>
-        <v>0.97241888134602261</v>
+        <f>IF(M32=0,0,IF(M32-L32&lt;0,(M32-L32)*-1/L32))</f>
+        <v>2.7581118653977402E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3003,12 +3005,12 @@
         <v>-79341.779999999795</v>
       </c>
       <c r="E33" s="5">
-        <f>IF(C33 =0,0,C33/B33)</f>
-        <v>0.98106085026138024</v>
+        <f>IF(C33=0,0,IF(C33-B33&lt;0,(C33-B33)*-1)/B33)</f>
+        <v>1.8939149738619768E-2</v>
       </c>
       <c r="F33">
         <f>RANK(E33,E:E)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G33">
         <v>4350600</v>
@@ -3021,12 +3023,12 @@
         <v>-213011.23000001023</v>
       </c>
       <c r="J33" s="5">
-        <f>IF(I33=0,0,H33/G33)</f>
-        <v>0.95103865443846591</v>
+        <f>IF(I33=0,0,IF(H33-G33&lt;0,(H33-G33)*-1/G33))</f>
+        <v>4.8961345561534093E-2</v>
       </c>
       <c r="K33">
         <f>RANK(J33,J:J)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L33">
         <v>4345600</v>
@@ -3039,8 +3041,8 @@
         <v>-115798.49000000022</v>
       </c>
       <c r="O33" s="5">
-        <f>IF(M33 = 0,0,M33/L33)</f>
-        <v>0.97335270388438877</v>
+        <f>IF(M33=0,0,IF(M33-L33&lt;0,(M33-L33)*-1/L33))</f>
+        <v>2.6647296115611244E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -3058,12 +3060,12 @@
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <f>IF(C34 =0,0,C34/B34)</f>
+        <f>IF(C34=0,0,IF(C34-B34&lt;0,(C34-B34)*-1)/B34)</f>
         <v>0</v>
       </c>
       <c r="F34">
         <f>RANK(E34,E:E)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3076,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <f>IF(I34=0,0,H34/G34)</f>
+        <f>IF(I34=0,0,IF(H34-G34&lt;0,(H34-G34)*-1/G34))</f>
         <v>0</v>
       </c>
       <c r="K34">
@@ -3094,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="5">
-        <f>IF(M34 = 0,0,M34/L34)</f>
+        <f>IF(M34=0,0,IF(M34-L34&lt;0,(M34-L34)*-1/L34))</f>
         <v>0</v>
       </c>
     </row>
@@ -3113,12 +3115,12 @@
         <v>-62776.72000000102</v>
       </c>
       <c r="E35" s="5">
-        <f>IF(C35 =0,0,C35/B35)</f>
-        <v>0.92135214232021923</v>
+        <f>IF(C35=0,0,IF(C35-B35&lt;0,(C35-B35)*-1)/B35)</f>
+        <v>7.8647857679780775E-2</v>
       </c>
       <c r="F35">
         <f>RANK(E35,E:E)</f>
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>898700</v>
@@ -3131,12 +3133,12 @@
         <v>-157733.05000000098</v>
       </c>
       <c r="J35" s="5">
-        <f>IF(I35=0,0,H35/G35)</f>
-        <v>0.82448753755424398</v>
+        <f>IF(I35=0,0,IF(H35-G35&lt;0,(H35-G35)*-1/G35))</f>
+        <v>0.17551246244575608</v>
       </c>
       <c r="K35">
         <f>RANK(J35,J:J)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>878300</v>
@@ -3149,8 +3151,8 @@
         <v>-101084.71000000101</v>
       </c>
       <c r="O35" s="5">
-        <f>IF(M35 = 0,0,M35/L35)</f>
-        <v>0.8849086758510748</v>
+        <f>IF(M35=0,0,IF(M35-L35&lt;0,(M35-L35)*-1/L35))</f>
+        <v>0.11509132414892521</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -3168,12 +3170,12 @@
         <v>-82352.260000010021</v>
       </c>
       <c r="E36" s="5">
-        <f>IF(C36 =0,0,C36/B36)</f>
-        <v>0.96055548424178083</v>
+        <f>IF(C36=0,0,IF(C36-B36&lt;0,(C36-B36)*-1)/B36)</f>
+        <v>3.9444515758219188E-2</v>
       </c>
       <c r="F36">
         <f>RANK(E36,E:E)</f>
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G36">
         <v>2229200</v>
@@ -3186,12 +3188,12 @@
         <v>-110256.79000000004</v>
       </c>
       <c r="J36" s="5">
-        <f>IF(I36=0,0,H36/G36)</f>
-        <v>0.95053974968598598</v>
+        <f>IF(I36=0,0,IF(H36-G36&lt;0,(H36-G36)*-1/G36))</f>
+        <v>4.9460250314014013E-2</v>
       </c>
       <c r="K36">
         <f>RANK(J36,J:J)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L36">
         <v>2296900</v>
@@ -3204,8 +3206,8 @@
         <v>-188181.66000000015</v>
       </c>
       <c r="O36" s="5">
-        <f>IF(M36 = 0,0,M36/L36)</f>
-        <v>0.91807146153511243</v>
+        <f>IF(M36=0,0,IF(M36-L36&lt;0,(M36-L36)*-1/L36))</f>
+        <v>8.1928538464887526E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -3223,12 +3225,12 @@
         <v>-7418835.2699990273</v>
       </c>
       <c r="E37" s="5">
-        <f>IF(C37 =0,0,C37/B37)</f>
-        <v>0.99200300692107313</v>
+        <f>IF(C37=0,0,IF(C37-B37&lt;0,(C37-B37)*-1)/B37)</f>
+        <v>7.9969930789269058E-3</v>
       </c>
       <c r="F37">
         <f>RANK(E37,E:E)</f>
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G37">
         <v>979671000</v>
@@ -3241,12 +3243,12 @@
         <v>-2602486.5199999809</v>
       </c>
       <c r="J37" s="5">
-        <f>IF(I37=0,0,H37/G37)</f>
-        <v>0.99734350968845664</v>
+        <f>IF(I37=0,0,IF(H37-G37&lt;0,(H37-G37)*-1/G37))</f>
+        <v>2.6564903115433454E-3</v>
       </c>
       <c r="K37">
         <f>RANK(J37,J:J)</f>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="L37">
         <v>989572899.99999905</v>
@@ -3259,8 +3261,8 @@
         <v>-5456610.5900000334</v>
       </c>
       <c r="O37" s="5">
-        <f>IF(M37 = 0,0,M37/L37)</f>
-        <v>0.99448589326769155</v>
+        <f>IF(M37=0,0,IF(M37-L37&lt;0,(M37-L37)*-1/L37))</f>
+        <v>5.5141067323084929E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -3278,12 +3280,12 @@
         <v>-16630.180000000051</v>
       </c>
       <c r="E38" s="5">
-        <f>IF(C38 =0,0,C38/B38)</f>
-        <v>0.98055631942008648</v>
+        <f>IF(C38=0,0,IF(C38-B38&lt;0,(C38-B38)*-1)/B38)</f>
+        <v>1.9443680579913542E-2</v>
       </c>
       <c r="F38">
         <f>RANK(E38,E:E)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G38">
         <v>792800</v>
@@ -3296,12 +3298,12 @@
         <v>-39348.040000000037</v>
       </c>
       <c r="J38" s="5">
-        <f>IF(I38=0,0,H38/G38)</f>
-        <v>0.95036826437941468</v>
+        <f>IF(I38=0,0,IF(H38-G38&lt;0,(H38-G38)*-1/G38))</f>
+        <v>4.9631735620585316E-2</v>
       </c>
       <c r="K38">
         <f>RANK(J38,J:J)</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="L38">
         <v>777800</v>
@@ -3314,8 +3316,8 @@
         <v>-136.73999999999069</v>
       </c>
       <c r="O38" s="5">
-        <f>IF(M38 = 0,0,M38/L38)</f>
-        <v>0.99982419645152998</v>
+        <f>IF(M38=0,0,IF(M38-L38&lt;0,(M38-L38)*-1/L38))</f>
+        <v>1.7580354847003174E-4</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -3333,12 +3335,12 @@
         <v>-70791.13</v>
       </c>
       <c r="E39" s="5">
-        <f>IF(C39 =0,0,C39/B39)</f>
-        <v>0.91991047629822376</v>
+        <f>IF(C39=0,0,IF(C39-B39&lt;0,(C39-B39)*-1)/B39)</f>
+        <v>8.008952370177623E-2</v>
       </c>
       <c r="F39">
         <f>RANK(E39,E:E)</f>
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>1294400</v>
@@ -3351,12 +3353,12 @@
         <v>-180157.72000000998</v>
       </c>
       <c r="J39" s="5">
-        <f>IF(I39=0,0,H39/G39)</f>
-        <v>0.86081758343633341</v>
+        <f>IF(I39=0,0,IF(H39-G39&lt;0,(H39-G39)*-1/G39))</f>
+        <v>0.13918241656366656</v>
       </c>
       <c r="K39">
         <f>RANK(J39,J:J)</f>
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="L39">
         <v>1759500</v>
@@ -3369,8 +3371,8 @@
         <v>-79036.1300000099</v>
       </c>
       <c r="O39" s="5">
-        <f>IF(M39 = 0,0,M39/L39)</f>
-        <v>0.95508034668939479</v>
+        <f>IF(M39=0,0,IF(M39-L39&lt;0,(M39-L39)*-1/L39))</f>
+        <v>4.4919653310605226E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3388,12 +3390,12 @@
         <v>-816758.14000009745</v>
       </c>
       <c r="E40" s="5">
-        <f>IF(C40 =0,0,C40/B40)</f>
-        <v>0.97872022646090739</v>
+        <f>IF(C40=0,0,IF(C40-B40&lt;0,(C40-B40)*-1)/B40)</f>
+        <v>2.1279773539092578E-2</v>
       </c>
       <c r="F40">
         <f>RANK(E40,E:E)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G40">
         <v>39964900</v>
@@ -3406,12 +3408,12 @@
         <v>-1869659.8100000992</v>
       </c>
       <c r="J40" s="5">
-        <f>IF(I40=0,0,H40/G40)</f>
-        <v>0.95321745306506211</v>
+        <f>IF(I40=0,0,IF(H40-G40&lt;0,(H40-G40)*-1/G40))</f>
+        <v>4.6782546934937892E-2</v>
       </c>
       <c r="K40">
         <f>RANK(J40,J:J)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L40">
         <v>40216700</v>
@@ -3424,8 +3426,8 @@
         <v>-610436.29000010341</v>
       </c>
       <c r="O40" s="5">
-        <f>IF(M40 = 0,0,M40/L40)</f>
-        <v>0.98482132323139138</v>
+        <f>IF(M40=0,0,IF(M40-L40&lt;0,(M40-L40)*-1/L40))</f>
+        <v>1.5178676768608648E-2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3443,12 +3445,12 @@
         <v>-184239.79000001028</v>
       </c>
       <c r="E41" s="5">
-        <f>IF(C41 =0,0,C41/B41)</f>
-        <v>0.95988944985086755</v>
+        <f>IF(C41=0,0,IF(C41-B41&lt;0,(C41-B41)*-1)/B41)</f>
+        <v>4.0110550149132493E-2</v>
       </c>
       <c r="F41">
         <f>RANK(E41,E:E)</f>
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <v>5089500</v>
@@ -3461,12 +3463,12 @@
         <v>-133456.33000001032</v>
       </c>
       <c r="J41" s="5">
-        <f>IF(I41=0,0,H41/G41)</f>
-        <v>0.9737781059043108</v>
+        <f>IF(I41=0,0,IF(H41-G41&lt;0,(H41-G41)*-1/G41))</f>
+        <v>2.6221894095689226E-2</v>
       </c>
       <c r="K41">
         <f>RANK(J41,J:J)</f>
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L41">
         <v>4799900</v>
@@ -3479,8 +3481,8 @@
         <v>-82077.349999999627</v>
       </c>
       <c r="O41" s="5">
-        <f>IF(M41 = 0,0,M41/L41)</f>
-        <v>0.98290019583741339</v>
+        <f>IF(M41=0,0,IF(M41-L41&lt;0,(M41-L41)*-1/L41))</f>
+        <v>1.7099804162586642E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3498,12 +3500,12 @@
         <v>-41624.320001006126</v>
       </c>
       <c r="E42" s="5">
-        <f>IF(C42 =0,0,C42/B42)</f>
-        <v>0.99977929056864157</v>
+        <f>IF(C42=0,0,IF(C42-B42&lt;0,(C42-B42)*-1)/B42)</f>
+        <v>2.2070943135841053E-4</v>
       </c>
       <c r="F42">
         <f>RANK(E42,E:E)</f>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>199130300</v>
@@ -3516,12 +3518,12 @@
         <v>-2375266.6899999976</v>
       </c>
       <c r="J42" s="5">
-        <f>IF(I42=0,0,H42/G42)</f>
-        <v>0.988071796758203</v>
+        <f>IF(I42=0,0,IF(H42-G42&lt;0,(H42-G42)*-1/G42))</f>
+        <v>1.1928203241796942E-2</v>
       </c>
       <c r="K42">
         <f>RANK(J42,J:J)</f>
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="L42">
         <v>199954600</v>
@@ -3534,8 +3536,8 @@
         <v>-36.250001013278961</v>
       </c>
       <c r="O42" s="5">
-        <f>IF(M42 = 0,0,M42/L42)</f>
-        <v>0.9999998187088418</v>
+        <f>IF(M42=0,0,IF(M42-L42&lt;0,(M42-L42)*-1/L42))</f>
+        <v>1.8129115815929696E-7</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3553,12 +3555,12 @@
         <v>-166754.16999999993</v>
       </c>
       <c r="E43" s="5">
-        <f>IF(C43 =0,0,C43/B43)</f>
-        <v>0.97950264645868679</v>
+        <f>IF(C43=0,0,IF(C43-B43&lt;0,(C43-B43)*-1)/B43)</f>
+        <v>2.0497353541313264E-2</v>
       </c>
       <c r="F43">
         <f>RANK(E43,E:E)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G43">
         <v>8560800</v>
@@ -3571,12 +3573,12 @@
         <v>-389327.98000000045</v>
       </c>
       <c r="J43" s="5">
-        <f>IF(I43=0,0,H43/G43)</f>
-        <v>0.95452200962526856</v>
+        <f>IF(I43=0,0,IF(H43-G43&lt;0,(H43-G43)*-1/G43))</f>
+        <v>4.5477990374731388E-2</v>
       </c>
       <c r="K43">
         <f>RANK(J43,J:J)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L43">
         <v>8497500</v>
@@ -3589,8 +3591,8 @@
         <v>-346517.43000000995</v>
       </c>
       <c r="O43" s="5">
-        <f>IF(M43 = 0,0,M43/L43)</f>
-        <v>0.95922124977934564</v>
+        <f>IF(M43=0,0,IF(M43-L43&lt;0,(M43-L43)*-1/L43))</f>
+        <v>4.0778750220654303E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3608,12 +3610,12 @@
         <v>-294095.62000000104</v>
       </c>
       <c r="E44" s="5">
-        <f>IF(C44 =0,0,C44/B44)</f>
-        <v>0.9902239249813849</v>
+        <f>IF(C44=0,0,IF(C44-B44&lt;0,(C44-B44)*-1)/B44)</f>
+        <v>9.7760750186150751E-3</v>
       </c>
       <c r="F44">
         <f>RANK(E44,E:E)</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G44">
         <v>31040700</v>
@@ -3626,12 +3628,12 @@
         <v>-246988.51999999955</v>
       </c>
       <c r="J44" s="5">
-        <f>IF(I44=0,0,H44/G44)</f>
-        <v>0.99204307505951861</v>
+        <f>IF(I44=0,0,IF(H44-G44&lt;0,(H44-G44)*-1/G44))</f>
+        <v>7.9569249404813532E-3</v>
       </c>
       <c r="K44">
         <f>RANK(J44,J:J)</f>
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>31282200</v>
@@ -3644,8 +3646,8 @@
         <v>-58.75</v>
       </c>
       <c r="O44" s="5">
-        <f>IF(M44 = 0,0,M44/L44)</f>
-        <v>0.99999812193515802</v>
+        <f>IF(M44=0,0,IF(M44-L44&lt;0,(M44-L44)*-1/L44))</f>
+        <v>1.8780648419868168E-6</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3663,12 +3665,12 @@
         <v>-712015.95000009984</v>
       </c>
       <c r="E45" s="5">
-        <f>IF(C45 =0,0,C45/B45)</f>
-        <v>0.98712485805112149</v>
+        <f>IF(C45=0,0,IF(C45-B45&lt;0,(C45-B45)*-1)/B45)</f>
+        <v>1.287514194887851E-2</v>
       </c>
       <c r="F45">
         <f>RANK(E45,E:E)</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G45">
         <v>56792200</v>
@@ -3681,12 +3683,12 @@
         <v>-2197246.0400001034</v>
       </c>
       <c r="J45" s="5">
-        <f>IF(I45=0,0,H45/G45)</f>
-        <v>0.96131077788851105</v>
+        <f>IF(I45=0,0,IF(H45-G45&lt;0,(H45-G45)*-1/G45))</f>
+        <v>3.8689222111488959E-2</v>
       </c>
       <c r="K45">
         <f>RANK(J45,J:J)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L45">
         <v>56027100</v>
@@ -3699,8 +3701,8 @@
         <v>-640550.34000010043</v>
       </c>
       <c r="O45" s="5">
-        <f>IF(M45 = 0,0,M45/L45)</f>
-        <v>0.98856713376205263</v>
+        <f>IF(M45=0,0,IF(M45-L45&lt;0,(M45-L45)*-1/L45))</f>
+        <v>1.1432866237947358E-2</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3718,12 +3720,12 @@
         <v>-777.57000000000698</v>
       </c>
       <c r="E46" s="5">
-        <f>IF(C46 =0,0,C46/B46)</f>
-        <v>0.99699895793130067</v>
+        <f>IF(C46=0,0,IF(C46-B46&lt;0,(C46-B46)*-1)/B46)</f>
+        <v>3.0010420686993711E-3</v>
       </c>
       <c r="F46">
         <f>RANK(E46,E:E)</f>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>266000</v>
@@ -3736,12 +3738,12 @@
         <v>-8597.090000000986</v>
       </c>
       <c r="J46" s="5">
-        <f>IF(I46=0,0,H46/G46)</f>
-        <v>0.96768011278195121</v>
+        <f>IF(I46=0,0,IF(H46-G46&lt;0,(H46-G46)*-1/G46))</f>
+        <v>3.2319887218048821E-2</v>
       </c>
       <c r="K46">
         <f>RANK(J46,J:J)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L46">
         <v>267100</v>
@@ -3754,8 +3756,8 @@
         <v>-12346.840000000986</v>
       </c>
       <c r="O46" s="5">
-        <f>IF(M46 = 0,0,M46/L46)</f>
-        <v>0.95377446649194686</v>
+        <f>IF(M46=0,0,IF(M46-L46&lt;0,(M46-L46)*-1/L46))</f>
+        <v>4.6225533508053113E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3773,12 +3775,12 @@
         <v>-12273.280000001192</v>
       </c>
       <c r="E47" s="5">
-        <f>IF(C47 =0,0,C47/B47)</f>
-        <v>0.99982564060309098</v>
+        <f>IF(C47=0,0,IF(C47-B47&lt;0,(C47-B47)*-1)/B47)</f>
+        <v>1.7435939690898361E-4</v>
       </c>
       <c r="F47">
         <f>RANK(E47,E:E)</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>73467000</v>
@@ -3791,12 +3793,12 @@
         <v>-24458.340000003576</v>
       </c>
       <c r="J47" s="5">
-        <f>IF(I47=0,0,H47/G47)</f>
-        <v>0.99966708399689652</v>
+        <f>IF(I47=0,0,IF(H47-G47&lt;0,(H47-G47)*-1/G47))</f>
+        <v>3.3291600310348285E-4</v>
       </c>
       <c r="K47">
         <f>RANK(J47,J:J)</f>
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="L47">
         <v>75072800</v>
@@ -3809,8 +3811,8 @@
         <v>-21970.820000097156</v>
       </c>
       <c r="O47" s="5">
-        <f>IF(M47 = 0,0,M47/L47)</f>
-        <v>0.99970733980882431</v>
+        <f>IF(M47=0,0,IF(M47-L47&lt;0,(M47-L47)*-1/L47))</f>
+        <v>2.9266019117572752E-4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3828,12 +3830,12 @@
         <v>-209747.43000000995</v>
       </c>
       <c r="E48" s="5">
-        <f>IF(C48 =0,0,C48/B48)</f>
-        <v>0.96886680767689215</v>
+        <f>IF(C48=0,0,IF(C48-B48&lt;0,(C48-B48)*-1)/B48)</f>
+        <v>3.1133192323107857E-2</v>
       </c>
       <c r="F48">
         <f>RANK(E48,E:E)</f>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G48">
         <v>7214700</v>
@@ -3846,12 +3848,12 @@
         <v>-292627.44000000041</v>
       </c>
       <c r="J48" s="5">
-        <f>IF(I48=0,0,H48/G48)</f>
-        <v>0.95944010977587424</v>
+        <f>IF(I48=0,0,IF(H48-G48&lt;0,(H48-G48)*-1/G48))</f>
+        <v>4.0559890224125802E-2</v>
       </c>
       <c r="K48">
         <f>RANK(J48,J:J)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="L48">
         <v>7289800</v>
@@ -3864,8 +3866,8 @@
         <v>-407449.76000001002</v>
       </c>
       <c r="O48" s="5">
-        <f>IF(M48 = 0,0,M48/L48)</f>
-        <v>0.94410686712941227</v>
+        <f>IF(M48=0,0,IF(M48-L48&lt;0,(M48-L48)*-1/L48))</f>
+        <v>5.5893132870587676E-2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3883,12 +3885,12 @@
         <v>-1700.570000000007</v>
       </c>
       <c r="E49" s="5">
-        <f>IF(C49 =0,0,C49/B49)</f>
-        <v>0.98155563991323203</v>
+        <f>IF(C49=0,0,IF(C49-B49&lt;0,(C49-B49)*-1)/B49)</f>
+        <v>1.8444360086767971E-2</v>
       </c>
       <c r="F49">
         <f>RANK(E49,E:E)</f>
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G49">
         <v>102600</v>
@@ -3901,12 +3903,12 @@
         <v>-7133.1199999999953</v>
       </c>
       <c r="J49" s="5">
-        <f>IF(I49=0,0,H49/G49)</f>
-        <v>0.93047641325536068</v>
+        <f>IF(I49=0,0,IF(H49-G49&lt;0,(H49-G49)*-1/G49))</f>
+        <v>6.9523586744639335E-2</v>
       </c>
       <c r="K49">
         <f>RANK(J49,J:J)</f>
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L49">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="5">
-        <f>IF(M49 = 0,0,M49/L49)</f>
+        <f>IF(M49=0,0,IF(M49-L49&lt;0,(M49-L49)*-1/L49))</f>
         <v>0</v>
       </c>
     </row>
@@ -3938,12 +3940,12 @@
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f>IF(C50 =0,0,C50/B50)</f>
-        <v>1</v>
+        <f>IF(C50=0,0,IF(C50-B50&lt;0,(C50-B50)*-1)/B50)</f>
+        <v>0</v>
       </c>
       <c r="F50">
         <f>RANK(E50,E:E)</f>
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="G50">
         <v>859100</v>
@@ -3956,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>IF(I50=0,0,H50/G50)</f>
+        <f>IF(I50=0,0,IF(H50-G50&lt;0,(H50-G50)*-1/G50))</f>
         <v>0</v>
       </c>
       <c r="K50">
@@ -3969,9 +3971,9 @@
       <c r="M50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5">
-        <f>IF(M50 = 0,0,M50/L50)</f>
-        <v>1</v>
+      <c r="O50" s="5" t="b">
+        <f>IF(M50=0,0,IF(M50-L50&lt;0,(M50-L50)*-1/L50))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3989,12 +3991,12 @@
         <v>-110074.66000000946</v>
       </c>
       <c r="E51" s="5">
-        <f>IF(C51 =0,0,C51/B51)</f>
-        <v>0.98721474417794186</v>
+        <f>IF(C51=0,0,IF(C51-B51&lt;0,(C51-B51)*-1)/B51)</f>
+        <v>1.2785255822058129E-2</v>
       </c>
       <c r="F51">
         <f>RANK(E51,E:E)</f>
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>8925500</v>
@@ -4007,12 +4009,12 @@
         <v>-326440.38000000082</v>
       </c>
       <c r="J51" s="5">
-        <f>IF(I51=0,0,H51/G51)</f>
-        <v>0.96342609601702978</v>
+        <f>IF(I51=0,0,IF(H51-G51&lt;0,(H51-G51)*-1/G51))</f>
+        <v>3.6573903982970231E-2</v>
       </c>
       <c r="K51">
         <f>RANK(J51,J:J)</f>
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>8833900</v>
@@ -4025,8 +4027,8 @@
         <v>-98056.689999999478</v>
       </c>
       <c r="O51" s="5">
-        <f>IF(M51 = 0,0,M51/L51)</f>
-        <v>0.9888999547198859</v>
+        <f>IF(M51=0,0,IF(M51-L51&lt;0,(M51-L51)*-1/L51))</f>
+        <v>1.1100045280114048E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -4044,12 +4046,12 @@
         <v>-196315.20000000019</v>
       </c>
       <c r="E52" s="5">
-        <f>IF(C52 =0,0,C52/B52)</f>
-        <v>0.91990403916768659</v>
+        <f>IF(C52=0,0,IF(C52-B52&lt;0,(C52-B52)*-1)/B52)</f>
+        <v>8.009596083231342E-2</v>
       </c>
       <c r="F52">
         <f>RANK(E52,E:E)</f>
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="G52">
         <v>2440700</v>
@@ -4062,12 +4064,12 @@
         <v>-236027.12000000011</v>
       </c>
       <c r="J52" s="5">
-        <f>IF(I52=0,0,H52/G52)</f>
-        <v>0.90329531691727782</v>
+        <f>IF(I52=0,0,IF(H52-G52&lt;0,(H52-G52)*-1/G52))</f>
+        <v>9.6704683082722218E-2</v>
       </c>
       <c r="K52">
         <f>RANK(J52,J:J)</f>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L52">
         <v>2321600</v>
@@ -4080,8 +4082,8 @@
         <v>-264764.74</v>
       </c>
       <c r="O52" s="5">
-        <f>IF(M52 = 0,0,M52/L52)</f>
-        <v>0.88595591833218468</v>
+        <f>IF(M52=0,0,IF(M52-L52&lt;0,(M52-L52)*-1/L52))</f>
+        <v>0.11404408166781529</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -4125,15 +4127,15 @@
         <v>25</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="0">VLOOKUP($A57,A2:P53,4,0)</f>
+        <f>VLOOKUP($A57,A2:P53,4,0)</f>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:C61" si="1">VLOOKUP($A57,A2:P53,9,0)</f>
+        <f>VLOOKUP($A57,A2:P53,9,0)</f>
         <v>0</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D61" si="2">VLOOKUP($A57,A2:P53,14,0)</f>
+        <f>VLOOKUP($A57,A2:P53,14,0)</f>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4142,15 +4144,15 @@
         <v>32</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP($A58,A3:P54,4,0)</f>
         <v>-149396.10000000987</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP($A58,A3:P54,9,0)</f>
         <v>-189254.06000000006</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($A58,A3:P54,14,0)</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4159,15 +4161,15 @@
         <v>38</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP($A59,A4:P55,4,0)</f>
         <v>-12230.810000000056</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP($A59,A4:P55,9,0)</f>
         <v>-45485.580000000075</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($A59,A4:P55,14,0)</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4176,15 +4178,15 @@
         <v>39</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP($A60,A5:P56,4,0)</f>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP($A60,A5:P56,9,0)</f>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($A60,A5:P56,14,0)</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4193,15 +4195,15 @@
         <v>55</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP($A61,A6:P57,4,0)</f>
         <v>-184239.79000001028</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f>VLOOKUP($A61,A6:P57,9,0)</f>
         <v>-133456.33000001032</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP($A61,A6:P57,14,0)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4246,15 +4248,15 @@
         <v>25</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B70" si="3">_xlfn.XLOOKUP($A66,A3:A53,D3:D53)</f>
+        <f t="shared" ref="B66:B70" si="0">_xlfn.XLOOKUP($A66,A3:A53,D3:D53)</f>
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C70" si="4">_xlfn.XLOOKUP($A66,A3:A53,I3:I53)</f>
+        <f>_xlfn.XLOOKUP($A66,A3:A53,I3:I53)</f>
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D70" si="5">_xlfn.XLOOKUP($A66,A3:A53,N3:N53)</f>
+        <f>_xlfn.XLOOKUP($A66,A3:A53,N3:N53)</f>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4263,15 +4265,15 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f>_xlfn.XLOOKUP($A67,A4:A54,I4:I54)</f>
         <v>-189254.06000000006</v>
       </c>
       <c r="D67">
-        <f t="shared" si="5"/>
+        <f>_xlfn.XLOOKUP($A67,A4:A54,N4:N54)</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4280,15 +4282,15 @@
         <v>38</v>
       </c>
       <c r="B68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f>_xlfn.XLOOKUP($A68,A5:A55,I5:I55)</f>
         <v>-45485.580000000075</v>
       </c>
       <c r="D68">
-        <f t="shared" si="5"/>
+        <f>_xlfn.XLOOKUP($A68,A5:A55,N5:N55)</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4297,15 +4299,15 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f>_xlfn.XLOOKUP($A69,A6:A56,I6:I56)</f>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D69">
-        <f t="shared" si="5"/>
+        <f>_xlfn.XLOOKUP($A69,A6:A56,N6:N56)</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4314,15 +4316,15 @@
         <v>55</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f>_xlfn.XLOOKUP($A70,A7:A57,I7:I57)</f>
         <v>-133456.33000001032</v>
       </c>
       <c r="D70">
-        <f t="shared" si="5"/>
+        <f>_xlfn.XLOOKUP($A70,A7:A57,N7:N57)</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4367,15 +4369,15 @@
         <v>25</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B79" si="6">INDEX($D3:$D53,MATCH(A75,A3:A53,0))</f>
+        <f t="shared" ref="B75:B79" si="1">INDEX($D3:$D53,MATCH(A75,A3:A53,0))</f>
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C79" si="7">INDEX($I3:$I53,MATCH(A75,A3:A53,0))</f>
+        <f>INDEX($I3:$I53,MATCH(A75,A3:A53,0))</f>
         <v>0</v>
       </c>
       <c r="D75">
-        <f t="shared" ref="D75:D79" si="8">INDEX($N2:$N53,MATCH(A75,A2:A53,0))</f>
+        <f>INDEX($N2:$N53,MATCH(A75,A2:A53,0))</f>
         <v>311228.08999999997</v>
       </c>
     </row>
@@ -4384,15 +4386,15 @@
         <v>32</v>
       </c>
       <c r="B76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-149396.10000000987</v>
       </c>
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f>INDEX($I4:$I54,MATCH(A76,A4:A54,0))</f>
         <v>-189254.06000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f>INDEX($N3:$N54,MATCH(A76,A3:A54,0))</f>
         <v>-374962.91000000015</v>
       </c>
     </row>
@@ -4401,15 +4403,15 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-12230.810000000056</v>
       </c>
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f>INDEX($I5:$I55,MATCH(A77,A5:A55,0))</f>
         <v>-45485.580000000075</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f>INDEX($N4:$N55,MATCH(A77,A4:A55,0))</f>
         <v>-72.879999999888241</v>
       </c>
     </row>
@@ -4418,15 +4420,15 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-4950.4699999999721</v>
       </c>
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f>INDEX($I6:$I56,MATCH(A78,A6:A56,0))</f>
         <v>-8005.7900000010268</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f>INDEX($N5:$N56,MATCH(A78,A5:A56,0))</f>
         <v>-1724.9000000000233</v>
       </c>
     </row>
@@ -4435,15 +4437,15 @@
         <v>55</v>
       </c>
       <c r="B79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>-184239.79000001028</v>
       </c>
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f>INDEX($I7:$I57,MATCH(A79,A7:A57,0))</f>
         <v>-133456.33000001032</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f>INDEX($N6:$N57,MATCH(A79,A6:A57,0))</f>
         <v>-82077.349999999627</v>
       </c>
     </row>
@@ -4457,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,11 +4476,11 @@
       </c>
       <c r="B84" s="6">
         <f>INDEX(B2:B52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>3329000</v>
+        <v>356640100</v>
       </c>
       <c r="C84" s="6">
         <f>INDEX(C2:C52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>2946071.21</v>
+        <v>341243679.13</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4487,11 +4489,11 @@
       </c>
       <c r="B85" s="6">
         <f>INDEX(G2:G52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>3390900</v>
+        <v>382685200</v>
       </c>
       <c r="C85" s="6">
         <f>INDEX(H2:H52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>3051483.41</v>
+        <v>346340810.81999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4500,11 +4502,11 @@
       </c>
       <c r="B86" s="6">
         <f>INDEX(L2:L52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>3345200</v>
+        <v>376548600</v>
       </c>
       <c r="C86" s="6">
         <f>INDEX(M2:M52,MATCH($B$82,$A$2:$A$52))</f>
-        <v>2946440.08</v>
+        <v>355279492.22999901</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4643,7 +4645,7 @@
   </sheetData>
   <autoFilter ref="A1:P52" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P52">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="A1:A52"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:O52">
@@ -4651,14 +4653,11 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 A2" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83 A2 B82" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
       <formula1>$A$2:$A$52</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83" xr:uid="{1248789C-8354-428B-8B98-C97B02054C67}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82" xr:uid="{A61ECB63-D96F-4DB6-B2B5-5765765F08CB}">
-      <formula1>$A$2:$A$52</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
